--- a/src/attributions/attributions_ig_traj_63.xlsx
+++ b/src/attributions/attributions_ig_traj_63.xlsx
@@ -1004,19 +1004,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0</v>
+        <v>0.2401135718327312</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1157138845533059</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.01207888581773532</v>
+        <v>-0.0140801560651949</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1025,79 +1025,79 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.06064495107771933</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0.08771111286612951</v>
       </c>
       <c r="J2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.2906157891536152</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1899872145508917</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.02046999054720549</v>
+        <v>-0.0358600814397469</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1451224058605492</v>
+        <v>-0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>-0.1932773041918927</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.1034339462766803</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.01571791146992076</v>
+        <v>-0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.02816406841427322</v>
+        <v>0.01733637254209362</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.02090943509038299</v>
+        <v>-0</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0</v>
+        <v>-0.02245833149949888</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0</v>
+        <v>0.09325170396931458</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.004097293611441401</v>
+        <v>-0</v>
       </c>
       <c r="AE2" t="n">
         <v>-0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.03871381408571526</v>
+        <v>-0.1024054121559777</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
@@ -1106,268 +1106,268 @@
         <v>-0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.008952200075176624</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0</v>
+        <v>-0.01447407317991855</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0</v>
+        <v>0.05819421552473314</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.04948971693022091</v>
+        <v>-0</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.07495459175299954</v>
+        <v>-0.06145869996344114</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.007571028401319496</v>
+        <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>-0.04523293167539676</v>
       </c>
       <c r="AT2" t="n">
         <v>-0</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0</v>
+        <v>0.4652930052654325</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.1461765740960304</v>
+        <v>-0</v>
       </c>
       <c r="AW2" t="n">
         <v>-0</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.002251488403027509</v>
+        <v>0.2059223397221895</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ2" t="n">
         <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.2153207597783728</v>
+        <v>-0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0</v>
+        <v>-0.1085833661937733</v>
       </c>
       <c r="BC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>0.01497336419801861</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.02803420770204667</v>
+        <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.04002158579592355</v>
+        <v>-0.0584831599896254</v>
       </c>
       <c r="BH2" t="n">
         <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.01365997185148482</v>
+        <v>0</v>
       </c>
       <c r="BK2" t="n">
-        <v>0</v>
+        <v>-0.08281310754167936</v>
       </c>
       <c r="BL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0</v>
+        <v>-0.008569524986570478</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.05253124141163047</v>
+        <v>-0</v>
       </c>
       <c r="BO2" t="n">
         <v>-0</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.05497087924203353</v>
+        <v>0.2217526125318197</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.08706374182383848</v>
+        <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0</v>
+        <v>0.06167726038931939</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>0.263408830484369</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.08387389513191476</v>
+        <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.01137583556086507</v>
+        <v>0.04562560671262003</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.06655190305677731</v>
+        <v>-0</v>
       </c>
       <c r="CC2" t="n">
-        <v>0</v>
+        <v>0.00655716325980756</v>
       </c>
       <c r="CD2" t="n">
         <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>-0.1035779858496723</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.05827964562538485</v>
+        <v>0</v>
       </c>
       <c r="CG2" t="n">
         <v>0</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.002575427662356124</v>
+        <v>-0.00772876860713151</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.04282600561441156</v>
+        <v>0</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0</v>
+        <v>0.07893466034238669</v>
       </c>
       <c r="CM2" t="n">
         <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0</v>
+        <v>-0.0178335450325998</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.02636109484238458</v>
+        <v>-0</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.05334367368734289</v>
+        <v>-0.07884842517949775</v>
       </c>
       <c r="CR2" t="n">
         <v>0</v>
       </c>
       <c r="CS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.02493369216951819</v>
+        <v>-0</v>
       </c>
       <c r="CU2" t="n">
-        <v>0</v>
+        <v>-0.008131724451474979</v>
       </c>
       <c r="CV2" t="n">
         <v>-0</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0</v>
+        <v>-0.1078577198193598</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.05748977409391905</v>
+        <v>-0</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.01388541657546406</v>
+        <v>-0.01472427226528075</v>
       </c>
       <c r="DA2" t="n">
         <v>0</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.03789847614675356</v>
+        <v>-0</v>
       </c>
       <c r="DD2" t="n">
-        <v>0</v>
+        <v>0.05569553906492418</v>
       </c>
       <c r="DE2" t="n">
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>-0.1515221385556389</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.01737269901235344</v>
+        <v>0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.09989687126207711</v>
+        <v>0.08823705833602717</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.05402698304800663</v>
+        <v>0</v>
       </c>
       <c r="DM2" t="n">
-        <v>0</v>
+        <v>0.03900878186288913</v>
       </c>
       <c r="DN2" t="n">
         <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>-0.03483814335940599</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.02379415233879485</v>
+        <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.0001708143450741532</v>
+        <v>-0.06723529231841541</v>
       </c>
       <c r="DS2" t="n">
         <v>0</v>
@@ -1376,199 +1376,199 @@
         <v>0</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.01132161326633482</v>
+        <v>0</v>
       </c>
       <c r="DV2" t="n">
-        <v>0</v>
+        <v>-0.02245010770205791</v>
       </c>
       <c r="DW2" t="n">
         <v>-0</v>
       </c>
       <c r="DX2" t="n">
-        <v>0</v>
+        <v>-0.1913342440829243</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.01049886227086478</v>
+        <v>-0</v>
       </c>
       <c r="DZ2" t="n">
         <v>-0</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.01872046033637787</v>
+        <v>0.0001449379106833827</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.05912896310377901</v>
+        <v>-0</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0</v>
+        <v>-0.02941720684711801</v>
       </c>
       <c r="EF2" t="n">
         <v>-0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>-0.05857863851749904</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.04180907549460004</v>
+        <v>0</v>
       </c>
       <c r="EI2" t="n">
         <v>0</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.05389468720202956</v>
+        <v>0.03436525696013095</v>
       </c>
       <c r="EK2" t="n">
         <v>-0</v>
       </c>
       <c r="EL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.05590455623259624</v>
+        <v>0</v>
       </c>
       <c r="EN2" t="n">
-        <v>0</v>
+        <v>0.116672240125666</v>
       </c>
       <c r="EO2" t="n">
         <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>-0</v>
+        <v>-0.06152038553364275</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.01093527984784566</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.0491189362371989</v>
+        <v>-0.03974710345427596</v>
       </c>
       <c r="ET2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0.02413690545109035</v>
+        <v>-0</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0</v>
+        <v>0.05942128069912744</v>
       </c>
       <c r="EX2" t="n">
         <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>0</v>
+        <v>-0.113552479540678</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.06302482310561175</v>
+        <v>-0</v>
       </c>
       <c r="FA2" t="n">
         <v>0</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.005490149776393505</v>
+        <v>-0.009310381767495627</v>
       </c>
       <c r="FC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.03573876019431011</v>
+        <v>0</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0</v>
+        <v>0.05332452789403964</v>
       </c>
       <c r="FG2" t="n">
         <v>0</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0</v>
+        <v>-0.01455440470229459</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.08298730466413305</v>
+        <v>-0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.004065735765682285</v>
+        <v>-0.04825999083153915</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM2" t="n">
         <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.007408355740241576</v>
+        <v>0</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0</v>
+        <v>0.007260091596141512</v>
       </c>
       <c r="FP2" t="n">
         <v>0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0</v>
+        <v>-0.004100733793769637</v>
       </c>
       <c r="FR2" t="n">
-        <v>-0.02159038352735113</v>
+        <v>-0</v>
       </c>
       <c r="FS2" t="n">
         <v>-0</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.002492567656425312</v>
+        <v>0.009366827224002013</v>
       </c>
       <c r="FU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV2" t="n">
         <v>-0</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.0317715490816344</v>
+        <v>-0</v>
       </c>
       <c r="FX2" t="n">
-        <v>-0</v>
+        <v>-0.04629353680999698</v>
       </c>
       <c r="FY2" t="n">
         <v>-0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-0</v>
+        <v>-0.08793757615938069</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.02336771534501121</v>
+        <v>0</v>
       </c>
       <c r="GB2" t="n">
         <v>-0</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE2" t="n">
         <v>-0</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.08806447739325515</v>
+        <v>-0</v>
       </c>
       <c r="GG2" t="n">
-        <v>0</v>
+        <v>-0.04646745385941742</v>
       </c>
     </row>
     <row r="3">
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1630,10 +1630,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
@@ -1684,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
         <v>0</v>
@@ -1711,10 +1711,10 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW3" t="n">
         <v>0</v>
@@ -1738,10 +1738,10 @@
         <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF3" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO3" t="n">
         <v>0</v>
@@ -1792,10 +1792,10 @@
         <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX3" t="n">
         <v>0</v>
@@ -1819,10 +1819,10 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG3" t="n">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP3" t="n">
         <v>0</v>
@@ -1900,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -1927,10 +1927,10 @@
         <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ3" t="n">
         <v>0</v>
@@ -1954,10 +1954,10 @@
         <v>0</v>
       </c>
       <c r="DX3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ3" t="n">
         <v>0</v>
@@ -1981,10 +1981,10 @@
         <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI3" t="n">
         <v>0</v>
@@ -2008,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER3" t="n">
         <v>0</v>
@@ -2035,10 +2035,10 @@
         <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA3" t="n">
         <v>0</v>
@@ -2089,10 +2089,10 @@
         <v>0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS3" t="n">
         <v>0</v>
@@ -2145,10 +2145,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2172,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -2199,10 +2199,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -2226,10 +2226,10 @@
         <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
         <v>0</v>
@@ -2280,10 +2280,10 @@
         <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW4" t="n">
         <v>0</v>
@@ -2307,10 +2307,10 @@
         <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
         <v>0</v>
@@ -2334,10 +2334,10 @@
         <v>0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO4" t="n">
         <v>0</v>
@@ -2361,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
         <v>0</v>
@@ -2388,10 +2388,10 @@
         <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
         <v>0</v>
@@ -2415,10 +2415,10 @@
         <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP4" t="n">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2496,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ4" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="DX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
         <v>0</v>
@@ -2550,10 +2550,10 @@
         <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI4" t="n">
         <v>0</v>
@@ -2577,10 +2577,10 @@
         <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER4" t="n">
         <v>0</v>
@@ -2604,10 +2604,10 @@
         <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA4" t="n">
         <v>0</v>
@@ -2658,10 +2658,10 @@
         <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS4" t="n">
         <v>0</v>
@@ -2711,28 +2711,28 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.1440077652532893</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1931908570282058</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.03139208425913627</v>
+        <v>-0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.02531484685771597</v>
+        <v>-0.02428023240476643</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>-0.1331424991379911</v>
       </c>
       <c r="H5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2741,22 +2741,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.1459464855510647</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3003147992991839</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.0673841415510323</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0.06563454231837432</v>
+        <v>-0.03307468297338797</v>
       </c>
       <c r="O5" t="n">
         <v>-0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>-0.1727874212409578</v>
       </c>
       <c r="Q5" t="n">
         <v>-0</v>
@@ -2765,52 +2765,52 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.08698254305910248</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03788959969836239</v>
+        <v>-0</v>
       </c>
       <c r="V5" t="n">
-        <v>0.02251234591150452</v>
+        <v>-0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.08214507626012771</v>
+        <v>0.2028755195369007</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0</v>
+        <v>-0.09537501979532592</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB5" t="n">
         <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>0.1240645042575592</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.009702997566116913</v>
+        <v>-0</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.004399790322056478</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.08131256491684631</v>
+        <v>-0.06226149280185612</v>
       </c>
       <c r="AG5" t="n">
         <v>-0</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0</v>
+        <v>-0.03372613911676436</v>
       </c>
       <c r="AI5" t="n">
         <v>-0</v>
@@ -2819,28 +2819,28 @@
         <v>-0</v>
       </c>
       <c r="AK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>-0.0224031094689459</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.05072562874245326</v>
+        <v>-0</v>
       </c>
       <c r="AN5" t="n">
-        <v>-0.001137977375104252</v>
+        <v>-0</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.04347729791245248</v>
+        <v>0.02671554120032863</v>
       </c>
       <c r="AP5" t="n">
         <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0</v>
+        <v>-0.04054227664899581</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS5" t="n">
         <v>-0</v>
@@ -2849,25 +2849,25 @@
         <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>0.2460300342743855</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.1788459851392719</v>
+        <v>-0</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.01382696894365035</v>
+        <v>-0</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.06114644507436147</v>
+        <v>0.1239233227207288</v>
       </c>
       <c r="AY5" t="n">
         <v>-0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0</v>
+        <v>-0.2359326872462183</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
         <v>-0</v>
@@ -2876,25 +2876,25 @@
         <v>-0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>0.03723999267516932</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.0355215966953077</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>-0.02376876322537973</v>
+        <v>0</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.04705507692713406</v>
+        <v>-0.02879200940769539</v>
       </c>
       <c r="BH5" t="n">
         <v>0</v>
       </c>
       <c r="BI5" t="n">
-        <v>0</v>
+        <v>-0.02207133957087884</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK5" t="n">
         <v>0</v>
@@ -2903,49 +2903,49 @@
         <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>-0</v>
+        <v>-0.003668135513173867</v>
       </c>
       <c r="BN5" t="n">
-        <v>-0.1088827845017324</v>
+        <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>-0.02634591343647268</v>
+        <v>0</v>
       </c>
       <c r="BP5" t="n">
-        <v>-0.1125381346750457</v>
+        <v>0.1642468218780935</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR5" t="n">
-        <v>0</v>
+        <v>0.06378653480600423</v>
       </c>
       <c r="BS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.08357207867505934</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.07667582464967561</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.02103202453179451</v>
+        <v>-0</v>
       </c>
       <c r="BY5" t="n">
-        <v>-0.01430494326393135</v>
+        <v>0.1121724913537736</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA5" t="n">
-        <v>0</v>
+        <v>-0.1309565648877117</v>
       </c>
       <c r="CB5" t="n">
         <v>-0</v>
@@ -2954,28 +2954,28 @@
         <v>-0</v>
       </c>
       <c r="CD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE5" t="n">
-        <v>-0</v>
+        <v>-0.06573784909116479</v>
       </c>
       <c r="CF5" t="n">
-        <v>-0.07205631346669518</v>
+        <v>-0</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.02488581266162017</v>
+        <v>0</v>
       </c>
       <c r="CH5" t="n">
-        <v>-0.01448982203939909</v>
+        <v>0.03652005283769238</v>
       </c>
       <c r="CI5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>-0</v>
+        <v>0.04655129376029526</v>
       </c>
       <c r="CK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL5" t="n">
         <v>-0</v>
@@ -2984,52 +2984,52 @@
         <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>-0</v>
+        <v>-0.08874584423317432</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.05421946600165526</v>
+        <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-0.01887398690374962</v>
+        <v>0</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.02479272381692073</v>
+        <v>-0.04475011223343484</v>
       </c>
       <c r="CR5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS5" t="n">
-        <v>-0</v>
+        <v>-0.05681079310065514</v>
       </c>
       <c r="CT5" t="n">
         <v>0</v>
       </c>
       <c r="CU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW5" t="n">
-        <v>0</v>
+        <v>-0.04312654954719555</v>
       </c>
       <c r="CX5" t="n">
-        <v>-0.05932800648167662</v>
+        <v>0</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.018568651214269</v>
+        <v>-0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.007576321574181381</v>
+        <v>0.01886235696774003</v>
       </c>
       <c r="DA5" t="n">
         <v>-0</v>
       </c>
       <c r="DB5" t="n">
-        <v>-0</v>
+        <v>0.05170339495334903</v>
       </c>
       <c r="DC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD5" t="n">
         <v>0</v>
@@ -3038,22 +3038,22 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>-0</v>
+        <v>-0.08079965866433585</v>
       </c>
       <c r="DG5" t="n">
-        <v>-0.07410791872056026</v>
+        <v>-0</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.005720108403579051</v>
+        <v>0</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.02957607369645716</v>
+        <v>0.02859969612113416</v>
       </c>
       <c r="DJ5" t="n">
         <v>-0</v>
       </c>
       <c r="DK5" t="n">
-        <v>-0</v>
+        <v>0.03570079121181379</v>
       </c>
       <c r="DL5" t="n">
         <v>-0</v>
@@ -3062,106 +3062,106 @@
         <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO5" t="n">
-        <v>-0</v>
+        <v>-0.0313927698070006</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.02720969471597291</v>
+        <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>-0.002962463049127078</v>
+        <v>0</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.03919808983389893</v>
+        <v>0.02502553889022186</v>
       </c>
       <c r="DS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT5" t="n">
-        <v>-0</v>
+        <v>-0.02895414078188051</v>
       </c>
       <c r="DU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV5" t="n">
         <v>-0</v>
       </c>
       <c r="DW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX5" t="n">
-        <v>0</v>
+        <v>-0.1521595156749506</v>
       </c>
       <c r="DY5" t="n">
-        <v>-0.03869020062345936</v>
+        <v>-0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.001960250413047644</v>
+        <v>-0</v>
       </c>
       <c r="EA5" t="n">
-        <v>-0.0106468502950628</v>
+        <v>-0.01294114316924572</v>
       </c>
       <c r="EB5" t="n">
         <v>0</v>
       </c>
       <c r="EC5" t="n">
-        <v>0</v>
+        <v>0.03636857835846618</v>
       </c>
       <c r="ED5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF5" t="n">
         <v>-0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>-0.01949009336769904</v>
       </c>
       <c r="EH5" t="n">
-        <v>-0.07213249205912048</v>
+        <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.05108189078553187</v>
+        <v>0</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.02056025454050584</v>
+        <v>0.03637315793677363</v>
       </c>
       <c r="EK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL5" t="n">
-        <v>0</v>
+        <v>0.06779392023346693</v>
       </c>
       <c r="EM5" t="n">
         <v>-0</v>
       </c>
       <c r="EN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>-0</v>
+        <v>-0.03252691588664201</v>
       </c>
       <c r="EQ5" t="n">
-        <v>-0.0154102920301787</v>
+        <v>0</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.001778829923298601</v>
+        <v>-0</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.009270163309878215</v>
+        <v>0.007470194176614067</v>
       </c>
       <c r="ET5" t="n">
         <v>0</v>
       </c>
       <c r="EU5" t="n">
-        <v>0</v>
+        <v>0.01536898583690515</v>
       </c>
       <c r="EV5" t="n">
         <v>-0</v>
@@ -3170,28 +3170,28 @@
         <v>-0</v>
       </c>
       <c r="EX5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>-0</v>
+        <v>-0.05772843283018302</v>
       </c>
       <c r="EZ5" t="n">
-        <v>-0.06100943172139175</v>
+        <v>-0</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.02207679231868299</v>
+        <v>0</v>
       </c>
       <c r="FB5" t="n">
-        <v>-0.00106202181911558</v>
+        <v>0.03324695225949686</v>
       </c>
       <c r="FC5" t="n">
         <v>0</v>
       </c>
       <c r="FD5" t="n">
-        <v>-0</v>
+        <v>0.04180013341169467</v>
       </c>
       <c r="FE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF5" t="n">
         <v>-0</v>
@@ -3200,79 +3200,79 @@
         <v>-0</v>
       </c>
       <c r="FH5" t="n">
-        <v>0</v>
+        <v>-0.06054256505824417</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.07900794999583834</v>
+        <v>0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.0267618112355431</v>
+        <v>0</v>
       </c>
       <c r="FK5" t="n">
-        <v>-0.006708570163699412</v>
+        <v>-0.003098563373677188</v>
       </c>
       <c r="FL5" t="n">
         <v>-0</v>
       </c>
       <c r="FM5" t="n">
-        <v>-0</v>
+        <v>0.04747016840239422</v>
       </c>
       <c r="FN5" t="n">
         <v>0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>-0</v>
+        <v>-0.006583305623180558</v>
       </c>
       <c r="FR5" t="n">
-        <v>-0.0008752338649876441</v>
+        <v>0</v>
       </c>
       <c r="FS5" t="n">
-        <v>-0.01011249718364328</v>
+        <v>-0</v>
       </c>
       <c r="FT5" t="n">
-        <v>-0.002525893290724729</v>
+        <v>0.006729325520747679</v>
       </c>
       <c r="FU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV5" t="n">
-        <v>-0</v>
+        <v>0.02852434377951387</v>
       </c>
       <c r="FW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX5" t="n">
         <v>-0</v>
       </c>
       <c r="FY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>-0.06935768878410095</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.05357052708914208</v>
+        <v>0</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.01751272766964369</v>
+        <v>-0</v>
       </c>
       <c r="GC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD5" t="n">
         <v>-0</v>
       </c>
       <c r="GE5" t="n">
-        <v>0</v>
+        <v>0.1878893057222895</v>
       </c>
       <c r="GF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG5" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3310,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -3337,10 +3337,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -3364,10 +3364,10 @@
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
         <v>0</v>
@@ -3391,10 +3391,10 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
         <v>0</v>
@@ -3418,10 +3418,10 @@
         <v>0</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW6" t="n">
         <v>0</v>
@@ -3445,10 +3445,10 @@
         <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF6" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO6" t="n">
         <v>0</v>
@@ -3499,10 +3499,10 @@
         <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
         <v>0</v>
@@ -3526,10 +3526,10 @@
         <v>0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG6" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP6" t="n">
         <v>0</v>
@@ -3607,10 +3607,10 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
@@ -3634,10 +3634,10 @@
         <v>0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ6" t="n">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="DX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
         <v>0</v>
@@ -3688,10 +3688,10 @@
         <v>0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI6" t="n">
         <v>0</v>
@@ -3715,10 +3715,10 @@
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER6" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA6" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS6" t="n">
         <v>0</v>
@@ -3849,52 +3849,52 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.9635145662797462</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.4012151070762464</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7407985804297343</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0</v>
+        <v>-0.2500254357833316</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.3277575803442516</v>
+        <v>0.004620544062256122</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.9670232051580167</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.3714021916284084</v>
       </c>
       <c r="L7" t="n">
-        <v>1.079359884089826</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>-0</v>
+        <v>-0.2757348668193681</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.007484961777868501</v>
+        <v>-0.03110510778172687</v>
       </c>
       <c r="O7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.05266350705457716</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.1647534420636644</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2224317201431149</v>
+        <v>-0</v>
       </c>
       <c r="V7" t="n">
-        <v>-0</v>
+        <v>-0.01396249026984723</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1832211805539673</v>
+        <v>0.112929239280519</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y7" t="n">
         <v>-0</v>
@@ -3930,46 +3930,46 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0.06302076359824528</v>
+        <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.1162625381823473</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.1461549098085357</v>
+        <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0</v>
+        <v>-0.0103669386833786</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.221960733106622</v>
+        <v>-0.05483323845895928</v>
       </c>
       <c r="AG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
         <v>-0</v>
       </c>
       <c r="AI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
         <v>-0</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0.2766637152568833</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>-0</v>
+        <v>0.01009719916482289</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.1691320439424248</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>-0</v>
+        <v>-0.1150964591259905</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.008886901807813929</v>
+        <v>-0.06498742919083007</v>
       </c>
       <c r="AP7" t="n">
         <v>0</v>
@@ -3978,25 +3978,25 @@
         <v>-0</v>
       </c>
       <c r="AR7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS7" t="n">
         <v>-0</v>
       </c>
       <c r="AT7" t="n">
-        <v>-0.7482202056046376</v>
+        <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>-0</v>
+        <v>0.4525197456669849</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.8108550761157064</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>-0</v>
+        <v>-0.06051138525847439</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.1835383298841756</v>
+        <v>0.2018818049314169</v>
       </c>
       <c r="AY7" t="n">
         <v>-0</v>
@@ -4005,25 +4005,25 @@
         <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC7" t="n">
-        <v>-0.1028188504036604</v>
+        <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>0.02392361239138066</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.09606609798126976</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>-0</v>
+        <v>-0.06587560817505626</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.258999111050852</v>
+        <v>-0.0823736148074678</v>
       </c>
       <c r="BH7" t="n">
         <v>0</v>
@@ -4032,28 +4032,28 @@
         <v>-0</v>
       </c>
       <c r="BJ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK7" t="n">
         <v>0</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.1888818966010136</v>
+        <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>-0</v>
+        <v>0.04673151351423487</v>
       </c>
       <c r="BN7" t="n">
-        <v>-0.3069703516745039</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>-0</v>
+        <v>0.06285087849358593</v>
       </c>
       <c r="BP7" t="n">
-        <v>-0.3575757991371656</v>
+        <v>0.1888118223943561</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR7" t="n">
         <v>-0</v>
@@ -4062,76 +4062,76 @@
         <v>-0</v>
       </c>
       <c r="BT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU7" t="n">
-        <v>-0.6678182318381175</v>
+        <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>-0</v>
+        <v>0.2132711911004352</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.4041643161416016</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>-0</v>
+        <v>0.008748527857643082</v>
       </c>
       <c r="BY7" t="n">
-        <v>-0.1096843370378577</v>
+        <v>0.1206695107982376</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA7" t="n">
         <v>0</v>
       </c>
       <c r="CB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.3254301710634462</v>
+        <v>0</v>
       </c>
       <c r="CE7" t="n">
-        <v>-0</v>
+        <v>-0.1153068015113571</v>
       </c>
       <c r="CF7" t="n">
-        <v>-0.2109347590469681</v>
+        <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>0</v>
+        <v>0.03269127673352415</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.0669441326488255</v>
+        <v>-0.0314668931880487</v>
       </c>
       <c r="CI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL7" t="n">
         <v>-0</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.0559072975310763</v>
+        <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>0.01210954277261306</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.08441790903270893</v>
+        <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>0</v>
+        <v>-0.1667911443458907</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.2565364420298152</v>
+        <v>-0.1434122867429266</v>
       </c>
       <c r="CR7" t="n">
         <v>0</v>
@@ -4140,79 +4140,79 @@
         <v>-0</v>
       </c>
       <c r="CT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU7" t="n">
         <v>0</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.2779263447765365</v>
+        <v>-0</v>
       </c>
       <c r="CW7" t="n">
-        <v>0</v>
+        <v>-0.110411261742363</v>
       </c>
       <c r="CX7" t="n">
-        <v>-0.1905991943487021</v>
+        <v>-0</v>
       </c>
       <c r="CY7" t="n">
-        <v>0</v>
+        <v>0.06493866782070368</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.1928855827747892</v>
+        <v>-0.02469010390088113</v>
       </c>
       <c r="DA7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD7" t="n">
         <v>0</v>
       </c>
       <c r="DE7" t="n">
-        <v>-0.07652831525978636</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>-0</v>
+        <v>-0.138431843996184</v>
       </c>
       <c r="DG7" t="n">
-        <v>-0.3884804151746038</v>
+        <v>0</v>
       </c>
       <c r="DH7" t="n">
-        <v>0</v>
+        <v>0.001306593664047617</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.02195573121156717</v>
+        <v>-0.007851418423987525</v>
       </c>
       <c r="DJ7" t="n">
         <v>-0</v>
       </c>
       <c r="DK7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM7" t="n">
         <v>0</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.1212633504015065</v>
+        <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>-0</v>
+        <v>-0.008658618814457304</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.1386682745448471</v>
+        <v>0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0</v>
+        <v>-0.0923709987143566</v>
       </c>
       <c r="DR7" t="n">
-        <v>-0.1652791293353456</v>
+        <v>-0.08382257045268177</v>
       </c>
       <c r="DS7" t="n">
         <v>0</v>
@@ -4221,25 +4221,25 @@
         <v>-0</v>
       </c>
       <c r="DU7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW7" t="n">
-        <v>-0.02409574373790407</v>
+        <v>-0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>0.0677822353051627</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.05325607390416508</v>
+        <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0</v>
+        <v>0.009459266464950388</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.1096727977666168</v>
+        <v>-0.009314979453201788</v>
       </c>
       <c r="EB7" t="n">
         <v>0</v>
@@ -4248,28 +4248,28 @@
         <v>0</v>
       </c>
       <c r="ED7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE7" t="n">
         <v>0</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.4645638542674445</v>
+        <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>-0</v>
+        <v>-0.1109378697295043</v>
       </c>
       <c r="EH7" t="n">
-        <v>-0.2463304267092082</v>
+        <v>0</v>
       </c>
       <c r="EI7" t="n">
-        <v>-0</v>
+        <v>0.05062521302125283</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.1193514731772131</v>
+        <v>0.07599665650671514</v>
       </c>
       <c r="EK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL7" t="n">
         <v>-0</v>
@@ -4278,103 +4278,103 @@
         <v>-0</v>
       </c>
       <c r="EN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.07634856904946652</v>
+        <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>-0</v>
+        <v>-0.1100759152765054</v>
       </c>
       <c r="EQ7" t="n">
-        <v>-0.2043381923250844</v>
+        <v>0</v>
       </c>
       <c r="ER7" t="n">
-        <v>0</v>
+        <v>0.07378588942990699</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.2027456381272034</v>
+        <v>-0.007993774820147027</v>
       </c>
       <c r="ET7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW7" t="n">
         <v>-0</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.3157976776005554</v>
+        <v>0</v>
       </c>
       <c r="EY7" t="n">
-        <v>-0</v>
+        <v>-0.1109018811560479</v>
       </c>
       <c r="EZ7" t="n">
-        <v>-0.2095407898718361</v>
+        <v>0</v>
       </c>
       <c r="FA7" t="n">
-        <v>0</v>
+        <v>0.0376200841724867</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.1494979378303992</v>
+        <v>-0.03053802286455222</v>
       </c>
       <c r="FC7" t="n">
         <v>0</v>
       </c>
       <c r="FD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF7" t="n">
         <v>-0</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.2722957199497206</v>
+        <v>0</v>
       </c>
       <c r="FH7" t="n">
-        <v>0</v>
+        <v>-0.003698716984742162</v>
       </c>
       <c r="FI7" t="n">
-        <v>-0.1540182126762366</v>
+        <v>-0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0</v>
+        <v>0.08573415672512238</v>
       </c>
       <c r="FK7" t="n">
-        <v>-0.08979808457034892</v>
+        <v>-0.003669769504550308</v>
       </c>
       <c r="FL7" t="n">
         <v>-0</v>
       </c>
       <c r="FM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN7" t="n">
         <v>-0</v>
       </c>
       <c r="FO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.1075293342135675</v>
+        <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>-0</v>
+        <v>-0.004835285423681538</v>
       </c>
       <c r="FR7" t="n">
-        <v>-0.007724396715150347</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
-        <v>0</v>
+        <v>0.03473738534119326</v>
       </c>
       <c r="FT7" t="n">
-        <v>-0.01142107165144704</v>
+        <v>-0.00147146627324495</v>
       </c>
       <c r="FU7" t="n">
         <v>-0</v>
@@ -4383,37 +4383,37 @@
         <v>-0</v>
       </c>
       <c r="FW7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY7" t="n">
-        <v>-0.002722722331188857</v>
+        <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0</v>
+        <v>0.004188769615223711</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.1489179481695001</v>
+        <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0</v>
+        <v>-0.08975365576585276</v>
       </c>
       <c r="GC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF7" t="n">
         <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8">
@@ -4421,181 +4421,181 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.1843888942319332</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4732929320221715</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.05895280986983694</v>
+        <v>-0.01035268142252774</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>-0.1130635019506334</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.176417601521739</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.1724416454317237</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5777050427070515</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.05686161304767786</v>
+        <v>-0.004712821799062347</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>-0.1736088953322788</v>
       </c>
       <c r="P8" t="n">
         <v>-0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.2803402961493509</v>
+        <v>-0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.02525293073835106</v>
       </c>
       <c r="U8" t="n">
-        <v>0.05285070884488532</v>
+        <v>-0</v>
       </c>
       <c r="V8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.009280112114979019</v>
+        <v>-0.03343056325913253</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>0.006934381646439346</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.02736970354715625</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
         <v>-0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>0.03255306744038865</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.07613616992840395</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
         <v>-0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.02762868065359023</v>
+        <v>0.03247834701995961</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>-0.004169833665025097</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
         <v>-0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.1245038764823083</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.01436635619759897</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.1360189369786987</v>
+        <v>-0</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.04707144594176334</v>
+        <v>-0.02176303930459076</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>-0.04671130425378683</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR8" t="n">
         <v>-0</v>
       </c>
       <c r="AS8" t="n">
-        <v>-0.01887491902148218</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>0.154572105861065</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.3316000859584528</v>
+        <v>-0</v>
       </c>
       <c r="AW8" t="n">
         <v>-0</v>
       </c>
       <c r="AX8" t="n">
-        <v>-0.01446964602698371</v>
+        <v>-0.026796372292423</v>
       </c>
       <c r="AY8" t="n">
-        <v>-0</v>
+        <v>-0.1027683089854655</v>
       </c>
       <c r="AZ8" t="n">
         <v>0</v>
       </c>
       <c r="BA8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB8" t="n">
-        <v>-0.1289028590910675</v>
+        <v>0</v>
       </c>
       <c r="BC8" t="n">
         <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>0.04886783711921587</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.1114689189129115</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
         <v>0</v>
       </c>
       <c r="BG8" t="n">
-        <v>-0.06714346594969184</v>
+        <v>-0.01455703194100047</v>
       </c>
       <c r="BH8" t="n">
-        <v>0</v>
+        <v>-0.02209174618624625</v>
       </c>
       <c r="BI8" t="n">
         <v>-0</v>
@@ -4604,106 +4604,106 @@
         <v>0</v>
       </c>
       <c r="BK8" t="n">
-        <v>-0.02082625443980091</v>
+        <v>-0</v>
       </c>
       <c r="BL8" t="n">
         <v>-0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>0.06077290085055233</v>
       </c>
       <c r="BN8" t="n">
-        <v>-0.1623924650024923</v>
+        <v>0</v>
       </c>
       <c r="BO8" t="n">
         <v>0</v>
       </c>
       <c r="BP8" t="n">
-        <v>-0.1180207122636162</v>
+        <v>0.01922945975424771</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0</v>
+        <v>0.02386322016819088</v>
       </c>
       <c r="BR8" t="n">
         <v>-0</v>
       </c>
       <c r="BS8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.06225953020381243</v>
+        <v>-0</v>
       </c>
       <c r="BU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>0.08071604220985115</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.2387623233886781</v>
+        <v>0</v>
       </c>
       <c r="BX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY8" t="n">
-        <v>-0.06036588206525344</v>
+        <v>-0.00392564826097323</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0</v>
+        <v>-0.03557486459726789</v>
       </c>
       <c r="CA8" t="n">
         <v>-0</v>
       </c>
       <c r="CB8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC8" t="n">
-        <v>-0.1253091192982737</v>
+        <v>0</v>
       </c>
       <c r="CD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE8" t="n">
-        <v>-0</v>
+        <v>-0.04738255203162089</v>
       </c>
       <c r="CF8" t="n">
-        <v>-0.1323182007035709</v>
+        <v>0</v>
       </c>
       <c r="CG8" t="n">
         <v>0</v>
       </c>
       <c r="CH8" t="n">
-        <v>-0.004529607384972297</v>
+        <v>-0.00678787038130974</v>
       </c>
       <c r="CI8" t="n">
-        <v>-0</v>
+        <v>0.04157704703941907</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK8" t="n">
         <v>0</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.05355534773574157</v>
+        <v>0</v>
       </c>
       <c r="CM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>-0</v>
+        <v>-0.01734350962227129</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.04012865670790453</v>
+        <v>-0</v>
       </c>
       <c r="CP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.1212444054544903</v>
+        <v>0.004507933646563978</v>
       </c>
       <c r="CR8" t="n">
-        <v>0</v>
+        <v>-0.02986705334992569</v>
       </c>
       <c r="CS8" t="n">
         <v>-0</v>
@@ -4712,52 +4712,52 @@
         <v>-0</v>
       </c>
       <c r="CU8" t="n">
-        <v>-0.1106375695181228</v>
+        <v>0</v>
       </c>
       <c r="CV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW8" t="n">
-        <v>-0</v>
+        <v>-0.03755265707511901</v>
       </c>
       <c r="CX8" t="n">
-        <v>-0.1226200679206897</v>
+        <v>-0</v>
       </c>
       <c r="CY8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.03629770594623954</v>
+        <v>-0.009495492208805956</v>
       </c>
       <c r="DA8" t="n">
-        <v>0</v>
+        <v>0.04390890180099744</v>
       </c>
       <c r="DB8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC8" t="n">
         <v>-0</v>
       </c>
       <c r="DD8" t="n">
-        <v>0.05566085804384313</v>
+        <v>0</v>
       </c>
       <c r="DE8" t="n">
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>-0</v>
+        <v>-0.04827645715200654</v>
       </c>
       <c r="DG8" t="n">
-        <v>-0.09962807128824408</v>
+        <v>-0</v>
       </c>
       <c r="DH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.0189902831357411</v>
+        <v>0.04553606452035922</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0</v>
+        <v>-0.0005709888500983823</v>
       </c>
       <c r="DK8" t="n">
         <v>0</v>
@@ -4766,79 +4766,79 @@
         <v>-0</v>
       </c>
       <c r="DM8" t="n">
-        <v>-0.009537581088228254</v>
+        <v>0</v>
       </c>
       <c r="DN8" t="n">
         <v>-0</v>
       </c>
       <c r="DO8" t="n">
-        <v>-0</v>
+        <v>-0.02768542669527649</v>
       </c>
       <c r="DP8" t="n">
-        <v>-0.005410482516692163</v>
+        <v>0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR8" t="n">
-        <v>-0.034974770954059</v>
+        <v>0.01793098152705943</v>
       </c>
       <c r="DS8" t="n">
-        <v>0</v>
+        <v>0.006136131499585512</v>
       </c>
       <c r="DT8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU8" t="n">
         <v>0</v>
       </c>
       <c r="DV8" t="n">
-        <v>-0.08242855371897451</v>
+        <v>0</v>
       </c>
       <c r="DW8" t="n">
         <v>-0</v>
       </c>
       <c r="DX8" t="n">
-        <v>0</v>
+        <v>0.02602654337975719</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.07365671474013948</v>
+        <v>0</v>
       </c>
       <c r="DZ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.009087304167920956</v>
+        <v>-0.01559854786248026</v>
       </c>
       <c r="EB8" t="n">
-        <v>-0</v>
+        <v>-0.02429204209142738</v>
       </c>
       <c r="EC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE8" t="n">
-        <v>-0.03215111673169273</v>
+        <v>-0</v>
       </c>
       <c r="EF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0.03509545485357162</v>
       </c>
       <c r="EH8" t="n">
-        <v>-0.138684215274104</v>
+        <v>-0</v>
       </c>
       <c r="EI8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ8" t="n">
-        <v>-0.07870632962644712</v>
+        <v>0.004759078330112402</v>
       </c>
       <c r="EK8" t="n">
-        <v>-0</v>
+        <v>0.0223200528587739</v>
       </c>
       <c r="EL8" t="n">
         <v>-0</v>
@@ -4847,142 +4847,142 @@
         <v>-0</v>
       </c>
       <c r="EN8" t="n">
-        <v>0.008949550283478155</v>
+        <v>0</v>
       </c>
       <c r="EO8" t="n">
         <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0.01625126943052205</v>
       </c>
       <c r="EQ8" t="n">
-        <v>-0.01001820898484942</v>
+        <v>0</v>
       </c>
       <c r="ER8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.05690748281984346</v>
+        <v>-0.01421779566298767</v>
       </c>
       <c r="ET8" t="n">
-        <v>0</v>
+        <v>0.03728454709639911</v>
       </c>
       <c r="EU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV8" t="n">
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.1308840925958193</v>
+        <v>0</v>
       </c>
       <c r="EX8" t="n">
         <v>-0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0.03828918257760519</v>
       </c>
       <c r="EZ8" t="n">
-        <v>-0.1329803604523773</v>
+        <v>0</v>
       </c>
       <c r="FA8" t="n">
         <v>0</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.02165791799121396</v>
+        <v>-0.004110158226891386</v>
       </c>
       <c r="FC8" t="n">
-        <v>-0</v>
+        <v>0.04606891141728292</v>
       </c>
       <c r="FD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.06158468831106602</v>
+        <v>0</v>
       </c>
       <c r="FG8" t="n">
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>-0</v>
+        <v>-0.00347502173349128</v>
       </c>
       <c r="FI8" t="n">
-        <v>-0.1280285602624371</v>
+        <v>-0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.09614756768442484</v>
+        <v>-0.03036790433530568</v>
       </c>
       <c r="FL8" t="n">
-        <v>-0</v>
+        <v>0.03165058579639515</v>
       </c>
       <c r="FM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO8" t="n">
-        <v>0.02851975710084236</v>
+        <v>0</v>
       </c>
       <c r="FP8" t="n">
         <v>0</v>
       </c>
       <c r="FQ8" t="n">
-        <v>-0</v>
+        <v>-0.003049792514626135</v>
       </c>
       <c r="FR8" t="n">
-        <v>-0.02580216526844703</v>
+        <v>-0</v>
       </c>
       <c r="FS8" t="n">
         <v>0</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.01034157405645168</v>
+        <v>0.001399593966380657</v>
       </c>
       <c r="FU8" t="n">
-        <v>-0</v>
+        <v>0.02545874353269183</v>
       </c>
       <c r="FV8" t="n">
         <v>-0</v>
       </c>
       <c r="FW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX8" t="n">
-        <v>0.1139535191347961</v>
+        <v>0</v>
       </c>
       <c r="FY8" t="n">
         <v>-0</v>
       </c>
       <c r="FZ8" t="n">
-        <v>-0</v>
+        <v>-0.01337573803783087</v>
       </c>
       <c r="GA8" t="n">
-        <v>0.09657573008919032</v>
+        <v>-0</v>
       </c>
       <c r="GB8" t="n">
         <v>-0</v>
       </c>
       <c r="GC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD8" t="n">
-        <v>0</v>
+        <v>-0.03738998028871125</v>
       </c>
       <c r="GE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF8" t="n">
         <v>0</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.08693511137982825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -4990,10 +4990,10 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -5044,10 +5044,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -5071,10 +5071,10 @@
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
@@ -5098,10 +5098,10 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
         <v>0</v>
@@ -5125,10 +5125,10 @@
         <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW9" t="n">
         <v>0</v>
@@ -5152,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
         <v>0</v>
@@ -5179,10 +5179,10 @@
         <v>0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO9" t="n">
         <v>0</v>
@@ -5206,10 +5206,10 @@
         <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
         <v>0</v>
@@ -5233,10 +5233,10 @@
         <v>0</v>
       </c>
       <c r="CE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG9" t="n">
         <v>0</v>
@@ -5260,10 +5260,10 @@
         <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP9" t="n">
         <v>0</v>
@@ -5314,10 +5314,10 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -5341,10 +5341,10 @@
         <v>0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ9" t="n">
         <v>0</v>
@@ -5395,10 +5395,10 @@
         <v>0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI9" t="n">
         <v>0</v>
@@ -5422,10 +5422,10 @@
         <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER9" t="n">
         <v>0</v>
@@ -5449,10 +5449,10 @@
         <v>0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA9" t="n">
         <v>0</v>
@@ -5476,10 +5476,10 @@
         <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ9" t="n">
         <v>0</v>
@@ -5503,10 +5503,10 @@
         <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS9" t="n">
         <v>0</v>
@@ -5556,82 +5556,82 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0.6078701952894319</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1900674885248048</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.008096209333290631</v>
+        <v>-0.172572331029094</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01724776770038047</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>-0</v>
+        <v>-0.4965415675857391</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.4904977040652538</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2239622148289191</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01850603263302705</v>
+        <v>-0.3783579955210251</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.04014188941855031</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>-0.8975589193964825</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.3420464681530597</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.01258358961759574</v>
+        <v>-0</v>
       </c>
       <c r="V10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.02652914237515967</v>
+        <v>0.3236732728674572</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.03257196161027048</v>
+        <v>-0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>-0.1303151367828247</v>
       </c>
       <c r="AA10" t="n">
         <v>-0</v>
@@ -5640,79 +5640,79 @@
         <v>-0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.32567828964991</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.0380324191977196</v>
+        <v>-0</v>
       </c>
       <c r="AE10" t="n">
         <v>-0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.04475127276913619</v>
+        <v>-0.1837643376971874</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.001841186386696453</v>
+        <v>-0</v>
       </c>
       <c r="AI10" t="n">
-        <v>-0</v>
+        <v>-0.3327918413422926</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
         <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0</v>
+        <v>0.1164157726222113</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.05324084291596497</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.01801979879532459</v>
+        <v>-0.01359613169252122</v>
       </c>
       <c r="AP10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.01136438533753277</v>
+        <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>-0.2098640936365915</v>
       </c>
       <c r="AS10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT10" t="n">
         <v>-0</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0</v>
+        <v>1.107888776290674</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.1063876758516828</v>
+        <v>-0</v>
       </c>
       <c r="AW10" t="n">
         <v>-0</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.03561411225944357</v>
+        <v>0.5306029113564124</v>
       </c>
       <c r="AY10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.02789855982473979</v>
+        <v>-0</v>
       </c>
       <c r="BA10" t="n">
-        <v>-0</v>
+        <v>-0.03387385831362077</v>
       </c>
       <c r="BB10" t="n">
         <v>0</v>
@@ -5721,133 +5721,133 @@
         <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>0.02952494138925956</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.06074510355089552</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.03616008920154231</v>
+        <v>-0.2820067352458726</v>
       </c>
       <c r="BH10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.007434390745526927</v>
+        <v>0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0</v>
+        <v>-0.2103286592948193</v>
       </c>
       <c r="BK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM10" t="n">
-        <v>-0</v>
+        <v>0.5666232543696172</v>
       </c>
       <c r="BN10" t="n">
-        <v>-0.05199450479597646</v>
+        <v>-0</v>
       </c>
       <c r="BO10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.01074951957770578</v>
+        <v>0.7924562450246911</v>
       </c>
       <c r="BQ10" t="n">
         <v>-0</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.006244075551783351</v>
+        <v>-0</v>
       </c>
       <c r="BS10" t="n">
-        <v>-0</v>
+        <v>0.317022127312517</v>
       </c>
       <c r="BT10" t="n">
         <v>-0</v>
       </c>
       <c r="BU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV10" t="n">
-        <v>-0</v>
+        <v>0.5210961570401721</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.08534832057700611</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
         <v>-0</v>
       </c>
       <c r="BY10" t="n">
-        <v>-0.01225769803190276</v>
+        <v>0.2634195110104856</v>
       </c>
       <c r="BZ10" t="n">
         <v>0</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.0371935376611281</v>
+        <v>-0</v>
       </c>
       <c r="CB10" t="n">
-        <v>-0</v>
+        <v>0.04358652072521354</v>
       </c>
       <c r="CC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE10" t="n">
-        <v>-0</v>
+        <v>-0.1928316719244588</v>
       </c>
       <c r="CF10" t="n">
-        <v>-0.04773516486484572</v>
+        <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.0008403748313314988</v>
+        <v>0.002164782265844448</v>
       </c>
       <c r="CI10" t="n">
         <v>-0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>-0.01924815651299287</v>
+        <v>-0</v>
       </c>
       <c r="CK10" t="n">
-        <v>0</v>
+        <v>0.2122567845266711</v>
       </c>
       <c r="CL10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>-0</v>
+        <v>-0.5045682987193382</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.01366235071598387</v>
+        <v>-0</v>
       </c>
       <c r="CP10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.03384563403664848</v>
+        <v>-0.593762181675045</v>
       </c>
       <c r="CR10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS10" t="n">
-        <v>-0.03141742318844278</v>
+        <v>0</v>
       </c>
       <c r="CT10" t="n">
-        <v>-0</v>
+        <v>-0.187645311495247</v>
       </c>
       <c r="CU10" t="n">
         <v>0</v>
@@ -5856,52 +5856,52 @@
         <v>-0</v>
       </c>
       <c r="CW10" t="n">
-        <v>0</v>
+        <v>-0.1467247843441021</v>
       </c>
       <c r="CX10" t="n">
-        <v>-0.04711563006614756</v>
+        <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.02089760675884517</v>
+        <v>0.02421457739306713</v>
       </c>
       <c r="DA10" t="n">
         <v>0</v>
       </c>
       <c r="DB10" t="n">
-        <v>-0.01459445068043535</v>
+        <v>0</v>
       </c>
       <c r="DC10" t="n">
-        <v>-0</v>
+        <v>0.1020165884305498</v>
       </c>
       <c r="DD10" t="n">
         <v>0</v>
       </c>
       <c r="DE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0.7596149185476655</v>
       </c>
       <c r="DG10" t="n">
-        <v>-0.03536236983807467</v>
+        <v>-0</v>
       </c>
       <c r="DH10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI10" t="n">
-        <v>-0.06408312153484343</v>
+        <v>0.07832762518933215</v>
       </c>
       <c r="DJ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK10" t="n">
-        <v>-0.005597261788070654</v>
+        <v>0</v>
       </c>
       <c r="DL10" t="n">
-        <v>0</v>
+        <v>-0.02948457643928555</v>
       </c>
       <c r="DM10" t="n">
         <v>0</v>
@@ -5910,106 +5910,106 @@
         <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>-0</v>
+        <v>-0.1828147387699959</v>
       </c>
       <c r="DP10" t="n">
-        <v>-0.01597468545212018</v>
+        <v>0</v>
       </c>
       <c r="DQ10" t="n">
         <v>0</v>
       </c>
       <c r="DR10" t="n">
-        <v>-0.01720365790718358</v>
+        <v>-0.1009869919091235</v>
       </c>
       <c r="DS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT10" t="n">
-        <v>-0.02775682415157901</v>
+        <v>0</v>
       </c>
       <c r="DU10" t="n">
-        <v>0</v>
+        <v>0.1502824836433378</v>
       </c>
       <c r="DV10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>0.05632226269940947</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.03087355363537994</v>
+        <v>0</v>
       </c>
       <c r="DZ10" t="n">
         <v>-0</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.003872133671103636</v>
+        <v>-0.08192716756796248</v>
       </c>
       <c r="EB10" t="n">
         <v>-0</v>
       </c>
       <c r="EC10" t="n">
-        <v>0.0306716943830662</v>
+        <v>0</v>
       </c>
       <c r="ED10" t="n">
-        <v>-0</v>
+        <v>-0.1956743503495845</v>
       </c>
       <c r="EE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF10" t="n">
         <v>0</v>
       </c>
       <c r="EG10" t="n">
-        <v>0</v>
+        <v>0.09046348072323508</v>
       </c>
       <c r="EH10" t="n">
-        <v>-0.08730024815446061</v>
+        <v>0</v>
       </c>
       <c r="EI10" t="n">
         <v>-0</v>
       </c>
       <c r="EJ10" t="n">
-        <v>-0.004904786789831606</v>
+        <v>0.04133886443840597</v>
       </c>
       <c r="EK10" t="n">
         <v>-0</v>
       </c>
       <c r="EL10" t="n">
-        <v>-0.01720121054884823</v>
+        <v>-0</v>
       </c>
       <c r="EM10" t="n">
-        <v>0</v>
+        <v>0.2286773631142533</v>
       </c>
       <c r="EN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO10" t="n">
         <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>0</v>
+        <v>-0.07481974021395711</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.01553241054326301</v>
+        <v>0</v>
       </c>
       <c r="ER10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.04398924339864412</v>
+        <v>0.1275739469495836</v>
       </c>
       <c r="ET10" t="n">
         <v>-0</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.008697825651525054</v>
+        <v>-0</v>
       </c>
       <c r="EV10" t="n">
-        <v>0</v>
+        <v>-0.003015855104209422</v>
       </c>
       <c r="EW10" t="n">
         <v>-0</v>
@@ -6018,91 +6018,91 @@
         <v>0</v>
       </c>
       <c r="EY10" t="n">
-        <v>0</v>
+        <v>-0.1348301633158986</v>
       </c>
       <c r="EZ10" t="n">
-        <v>-0.04689818685222581</v>
+        <v>0</v>
       </c>
       <c r="FA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.004907088712582732</v>
+        <v>0.03285928768169188</v>
       </c>
       <c r="FC10" t="n">
         <v>-0</v>
       </c>
       <c r="FD10" t="n">
-        <v>-0.01068090475034983</v>
+        <v>-0</v>
       </c>
       <c r="FE10" t="n">
-        <v>0</v>
+        <v>0.1979208491394169</v>
       </c>
       <c r="FF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH10" t="n">
-        <v>0</v>
+        <v>-0.06956283905458385</v>
       </c>
       <c r="FI10" t="n">
-        <v>-0.01682489825350448</v>
+        <v>-0</v>
       </c>
       <c r="FJ10" t="n">
         <v>0</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.01168027959458355</v>
+        <v>-0.1602363269900171</v>
       </c>
       <c r="FL10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM10" t="n">
-        <v>0.01239156543850195</v>
+        <v>-0</v>
       </c>
       <c r="FN10" t="n">
-        <v>0</v>
+        <v>-0.09242504819473479</v>
       </c>
       <c r="FO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP10" t="n">
         <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>-0</v>
+        <v>0.0149176754047686</v>
       </c>
       <c r="FR10" t="n">
-        <v>-0.005769742219471682</v>
+        <v>-0</v>
       </c>
       <c r="FS10" t="n">
         <v>-0</v>
       </c>
       <c r="FT10" t="n">
-        <v>-0.00596159650531069</v>
+        <v>0.04546035860726795</v>
       </c>
       <c r="FU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV10" t="n">
-        <v>0.00796513783956709</v>
+        <v>-0</v>
       </c>
       <c r="FW10" t="n">
-        <v>0</v>
+        <v>-0.1998680074407093</v>
       </c>
       <c r="FX10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY10" t="n">
         <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0</v>
+        <v>-0.3816011206660188</v>
       </c>
       <c r="GA10" t="n">
-        <v>-0.002233789855631115</v>
+        <v>-0</v>
       </c>
       <c r="GB10" t="n">
         <v>-0</v>
@@ -6114,36 +6114,36 @@
         <v>0</v>
       </c>
       <c r="GE10" t="n">
-        <v>0.001898498986704321</v>
+        <v>-0</v>
       </c>
       <c r="GF10" t="n">
-        <v>0</v>
+        <v>-0.3647736013559778</v>
       </c>
       <c r="GG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>-0.2707214091768073</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.3122622728056068</v>
+        <v>0.5074774441376526</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4005767966497357</v>
+        <v>-0</v>
       </c>
       <c r="D11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.04257924067632569</v>
+        <v>-0.1896615930458511</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -6152,73 +6152,73 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>-0.1850455462795859</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.2916583567599916</v>
+        <v>0.4258968431891907</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4501632328940339</v>
+        <v>-0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.07613312265875172</v>
+        <v>-0.4199979349971851</v>
       </c>
       <c r="O11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>0.02007418512087081</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.1797962958708308</v>
+        <v>0.3261962235502707</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1275954598542666</v>
+        <v>-0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.05856647133502414</v>
+        <v>0.2059310835227113</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0</v>
+        <v>0.03333497543854756</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.1214967311634413</v>
+        <v>0.1909841665608231</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.1111009903290867</v>
+        <v>-0</v>
       </c>
       <c r="AE11" t="n">
         <v>-0</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.02885676641072</v>
+        <v>-0.09432434638311359</v>
       </c>
       <c r="AG11" t="n">
         <v>0</v>
@@ -6227,25 +6227,25 @@
         <v>-0</v>
       </c>
       <c r="AI11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
         <v>-0</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>-0.1110062986680288</v>
       </c>
       <c r="AL11" t="n">
-        <v>-0.1160508051751906</v>
+        <v>0.2212128488170539</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.08598244068218754</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.01849424122193842</v>
+        <v>0.02597974588566637</v>
       </c>
       <c r="AP11" t="n">
         <v>0</v>
@@ -6254,52 +6254,52 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>0.2147975569604381</v>
       </c>
       <c r="AU11" t="n">
-        <v>-0.2302818824392265</v>
+        <v>0.6519339249936688</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.1048512507502822</v>
+        <v>-0</v>
       </c>
       <c r="AW11" t="n">
         <v>-0</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.1490289301884929</v>
+        <v>0.3417118347580521</v>
       </c>
       <c r="AY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC11" t="n">
-        <v>-0</v>
+        <v>-0.1613228502988767</v>
       </c>
       <c r="BD11" t="n">
-        <v>-0.1181563560247594</v>
+        <v>-0.05311064749029159</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.1348721725951207</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG11" t="n">
-        <v>-0.1395395123213872</v>
+        <v>-0.3313621053354832</v>
       </c>
       <c r="BH11" t="n">
         <v>0</v>
@@ -6314,46 +6314,46 @@
         <v>0</v>
       </c>
       <c r="BL11" t="n">
-        <v>-0</v>
+        <v>-0.08516725212609745</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.02472372487025548</v>
+        <v>0.1122232160193179</v>
       </c>
       <c r="BN11" t="n">
-        <v>-0.1454832565878777</v>
+        <v>-0</v>
       </c>
       <c r="BO11" t="n">
         <v>-0</v>
       </c>
       <c r="BP11" t="n">
-        <v>-0.1068338200249543</v>
+        <v>0.3378521760191397</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR11" t="n">
         <v>-0</v>
       </c>
       <c r="BS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU11" t="n">
-        <v>0</v>
+        <v>0.1245711042218914</v>
       </c>
       <c r="BV11" t="n">
-        <v>-0.1391285039332388</v>
+        <v>0.4029487526928349</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.2077434565664039</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.04030951316083646</v>
+        <v>0.07096805813991476</v>
       </c>
       <c r="BZ11" t="n">
         <v>0</v>
@@ -6368,46 +6368,46 @@
         <v>0</v>
       </c>
       <c r="CD11" t="n">
-        <v>-0</v>
+        <v>0.0428826136330856</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.08386151129573496</v>
+        <v>-0.1127444265766923</v>
       </c>
       <c r="CF11" t="n">
-        <v>-0.07042560802904824</v>
+        <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH11" t="n">
-        <v>-0.005731866640920717</v>
+        <v>-0.01122326441703616</v>
       </c>
       <c r="CI11" t="n">
         <v>0</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL11" t="n">
         <v>-0</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0</v>
+        <v>-0.2905302299634419</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.0237850577818532</v>
+        <v>-0.127518989143199</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.0824992762179851</v>
+        <v>-0</v>
       </c>
       <c r="CP11" t="n">
         <v>-0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.1626276583792517</v>
+        <v>-0.3153763828125312</v>
       </c>
       <c r="CR11" t="n">
         <v>-0</v>
@@ -6422,25 +6422,25 @@
         <v>0</v>
       </c>
       <c r="CV11" t="n">
-        <v>0</v>
+        <v>0.01925191319370592</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.06806981952539548</v>
+        <v>-0.1249607959644102</v>
       </c>
       <c r="CX11" t="n">
-        <v>-0.08212765626358784</v>
+        <v>-0</v>
       </c>
       <c r="CY11" t="n">
         <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.01866174903162839</v>
+        <v>0.01043623181318552</v>
       </c>
       <c r="DA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC11" t="n">
         <v>-0</v>
@@ -6449,19 +6449,19 @@
         <v>0</v>
       </c>
       <c r="DE11" t="n">
-        <v>-0</v>
+        <v>0.2764567570474281</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.1817066976953041</v>
+        <v>-0.4454087305763272</v>
       </c>
       <c r="DG11" t="n">
-        <v>-0.00201183920250145</v>
+        <v>0</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
       </c>
       <c r="DI11" t="n">
-        <v>-0.01352669069475477</v>
+        <v>0.07611924096050851</v>
       </c>
       <c r="DJ11" t="n">
         <v>0</v>
@@ -6470,28 +6470,28 @@
         <v>0</v>
       </c>
       <c r="DL11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN11" t="n">
-        <v>-0</v>
+        <v>-0.1492523341683466</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.05065583709663986</v>
+        <v>-0.1880649043661372</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.05948078785926439</v>
+        <v>-0</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.002277632470777499</v>
+        <v>-0.05666994190352299</v>
       </c>
       <c r="DS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT11" t="n">
         <v>0</v>
@@ -6503,19 +6503,19 @@
         <v>0</v>
       </c>
       <c r="DW11" t="n">
-        <v>-0</v>
+        <v>-0.04869654111746502</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.0565544668999365</v>
+        <v>0.1297667886481208</v>
       </c>
       <c r="DY11" t="n">
-        <v>0.0684373855314622</v>
+        <v>0</v>
       </c>
       <c r="DZ11" t="n">
         <v>-0</v>
       </c>
       <c r="EA11" t="n">
-        <v>-0.02323903341680968</v>
+        <v>-0.1220629937281391</v>
       </c>
       <c r="EB11" t="n">
         <v>0</v>
@@ -6524,109 +6524,109 @@
         <v>0</v>
       </c>
       <c r="ED11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE11" t="n">
         <v>-0</v>
       </c>
       <c r="EF11" t="n">
-        <v>-0</v>
+        <v>-0.07104764345710869</v>
       </c>
       <c r="EG11" t="n">
-        <v>-0.0409894562648592</v>
+        <v>0.1720342465805183</v>
       </c>
       <c r="EH11" t="n">
-        <v>-0.07485965996153984</v>
+        <v>0</v>
       </c>
       <c r="EI11" t="n">
         <v>-0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>-0.07488755511676426</v>
+        <v>0.005631028614871183</v>
       </c>
       <c r="EK11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
         <v>-0</v>
       </c>
       <c r="EN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO11" t="n">
-        <v>0</v>
+        <v>-0.03856160436148627</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.1361156889322498</v>
+        <v>-0.09110731076979021</v>
       </c>
       <c r="EQ11" t="n">
-        <v>-0.06188716168160136</v>
+        <v>0</v>
       </c>
       <c r="ER11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.1141699485446104</v>
+        <v>-0.03345904693938878</v>
       </c>
       <c r="ET11" t="n">
         <v>-0</v>
       </c>
       <c r="EU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX11" t="n">
-        <v>-0</v>
+        <v>0.04102282689885545</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.05140347178244629</v>
+        <v>-0.1148610157129268</v>
       </c>
       <c r="EZ11" t="n">
-        <v>-0.08791423745612433</v>
+        <v>-0</v>
       </c>
       <c r="FA11" t="n">
         <v>-0</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.01414861381425601</v>
+        <v>-0.05339437890875692</v>
       </c>
       <c r="FC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG11" t="n">
-        <v>0</v>
+        <v>0.176731585559352</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.07637282700279767</v>
+        <v>-0.07201295218070231</v>
       </c>
       <c r="FI11" t="n">
-        <v>-0.1290045464581425</v>
+        <v>-0</v>
       </c>
       <c r="FJ11" t="n">
         <v>0</v>
       </c>
       <c r="FK11" t="n">
-        <v>-0.03327256648499891</v>
+        <v>-0.09409508568705237</v>
       </c>
       <c r="FL11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM11" t="n">
         <v>0</v>
@@ -6638,19 +6638,19 @@
         <v>0</v>
       </c>
       <c r="FP11" t="n">
-        <v>0</v>
+        <v>-0.004602285086210482</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.1103129567260836</v>
+        <v>-0.03073929229167813</v>
       </c>
       <c r="FR11" t="n">
-        <v>-0.00739013198804324</v>
+        <v>-0</v>
       </c>
       <c r="FS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.009162857974654057</v>
+        <v>0.01631544618180665</v>
       </c>
       <c r="FU11" t="n">
         <v>0</v>
@@ -6665,19 +6665,19 @@
         <v>-0</v>
       </c>
       <c r="FY11" t="n">
-        <v>0</v>
+        <v>-0.06657447807152221</v>
       </c>
       <c r="FZ11" t="n">
-        <v>-0.001814602844558029</v>
+        <v>-0.173102891702359</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.1332992242808785</v>
+        <v>-0</v>
       </c>
       <c r="GB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD11" t="n">
         <v>-0</v>
@@ -6689,60 +6689,60 @@
         <v>-0</v>
       </c>
       <c r="GG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0.5824102386383335</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2376881349096316</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1746471315305179</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001010106696951656</v>
+        <v>-0.2881052849798458</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-0.3044310111558047</v>
       </c>
       <c r="H12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>-0</v>
+        <v>0.4193871797555048</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2501594915555953</v>
+        <v>-0</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.1231830290161896</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1207468353637793</v>
+        <v>-0.3012031448909107</v>
       </c>
       <c r="O12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>-0.2625274625917272</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -6751,133 +6751,133 @@
         <v>-0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.2077718204277583</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04445961932833822</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0.09009912517820462</v>
+        <v>-0</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1133529212551002</v>
+        <v>0.2256666892402747</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y12" t="n">
-        <v>-0</v>
+        <v>-0.03059047530289946</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB12" t="n">
         <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>0.2424100632008525</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.003855311148195092</v>
+        <v>-0</v>
       </c>
       <c r="AE12" t="n">
-        <v>-0.0777034694336859</v>
+        <v>-0</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.02046287354180119</v>
+        <v>0.06468693113392178</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>-0.02889067137988132</v>
       </c>
       <c r="AI12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
         <v>-0</v>
       </c>
       <c r="AK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>0.07632833437670559</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.06466720656815145</v>
+        <v>-0</v>
       </c>
       <c r="AN12" t="n">
-        <v>-0.01139308064751719</v>
+        <v>-0</v>
       </c>
       <c r="AO12" t="n">
-        <v>-0.04260223492697229</v>
+        <v>0.0001151986740524891</v>
       </c>
       <c r="AP12" t="n">
         <v>0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>-0</v>
+        <v>-0.08095123652481216</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT12" t="n">
         <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>-0</v>
+        <v>0.6311367939521345</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.1457808564819927</v>
+        <v>-0</v>
       </c>
       <c r="AW12" t="n">
-        <v>-0.01685422383606386</v>
+        <v>-0</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.1331923061065826</v>
+        <v>-0.009197745691937631</v>
       </c>
       <c r="AY12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>-0</v>
+        <v>-0.1842342980375409</v>
       </c>
       <c r="BA12" t="n">
         <v>-0</v>
       </c>
       <c r="BB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>-0</v>
+        <v>0.1162555256108723</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.07914907091308139</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>-0.1039450516412933</v>
+        <v>0</v>
       </c>
       <c r="BG12" t="n">
-        <v>-0.07315383346240682</v>
+        <v>-0.1205080762383365</v>
       </c>
       <c r="BH12" t="n">
         <v>0</v>
       </c>
       <c r="BI12" t="n">
-        <v>0</v>
+        <v>-0.1275358199575496</v>
       </c>
       <c r="BJ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK12" t="n">
         <v>0</v>
@@ -6886,295 +6886,295 @@
         <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>0</v>
+        <v>0.1093627432842006</v>
       </c>
       <c r="BN12" t="n">
-        <v>-0.09361774174555723</v>
+        <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>-0.06998780542433793</v>
+        <v>-0</v>
       </c>
       <c r="BP12" t="n">
-        <v>-0.09754568520204789</v>
+        <v>0.2292352911318397</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR12" t="n">
-        <v>-0</v>
+        <v>0.02101660101861928</v>
       </c>
       <c r="BS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU12" t="n">
         <v>-0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0</v>
+        <v>0.2676600407406005</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.06982809500879882</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>-0.02158215080781699</v>
+        <v>-0</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.004724197022471478</v>
+        <v>-0.01189587731086874</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA12" t="n">
-        <v>0</v>
+        <v>-0.07597566641323297</v>
       </c>
       <c r="CB12" t="n">
         <v>-0</v>
       </c>
       <c r="CC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE12" t="n">
-        <v>0</v>
+        <v>-0.155632955620349</v>
       </c>
       <c r="CF12" t="n">
-        <v>-0.0463387111724326</v>
+        <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.04382039398539499</v>
+        <v>-0</v>
       </c>
       <c r="CH12" t="n">
-        <v>-0.03295317743888741</v>
+        <v>0.05498488373518511</v>
       </c>
       <c r="CI12" t="n">
         <v>-0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>-0</v>
+        <v>0.07308536761529867</v>
       </c>
       <c r="CK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL12" t="n">
         <v>-0</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>0</v>
+        <v>-0.2355077368817647</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.0148265356326782</v>
+        <v>-0</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.008429234258555377</v>
+        <v>0</v>
       </c>
       <c r="CQ12" t="n">
-        <v>-0.01410609616836357</v>
+        <v>-0.1802521855658216</v>
       </c>
       <c r="CR12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS12" t="n">
-        <v>-0</v>
+        <v>-0.003461734148436727</v>
       </c>
       <c r="CT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW12" t="n">
-        <v>-0</v>
+        <v>-0.1224972407053651</v>
       </c>
       <c r="CX12" t="n">
-        <v>-0.04489739773585071</v>
+        <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.03783514925600211</v>
+        <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>-0.01731367606931578</v>
+        <v>0.04764818309290721</v>
       </c>
       <c r="DA12" t="n">
         <v>0</v>
       </c>
       <c r="DB12" t="n">
-        <v>0</v>
+        <v>0.06413322552574288</v>
       </c>
       <c r="DC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD12" t="n">
         <v>0</v>
       </c>
       <c r="DE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>-0</v>
+        <v>-0.3744950078600637</v>
       </c>
       <c r="DG12" t="n">
-        <v>-0.02669835022653117</v>
+        <v>-0</v>
       </c>
       <c r="DH12" t="n">
-        <v>-0.04068398997781617</v>
+        <v>-0</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.1074458674430943</v>
+        <v>0.04368829130686323</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK12" t="n">
-        <v>-0</v>
+        <v>-0.1037096425742668</v>
       </c>
       <c r="DL12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO12" t="n">
-        <v>-0</v>
+        <v>-0.08792483675022678</v>
       </c>
       <c r="DP12" t="n">
-        <v>0.06056530618902586</v>
+        <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>-0.02021129431374161</v>
+        <v>-0</v>
       </c>
       <c r="DR12" t="n">
-        <v>-0.1083796039826752</v>
+        <v>0.04059864972759172</v>
       </c>
       <c r="DS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT12" t="n">
-        <v>-0</v>
+        <v>-0.02496240735886893</v>
       </c>
       <c r="DU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV12" t="n">
         <v>-0</v>
       </c>
       <c r="DW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>0.1476524374914841</v>
       </c>
       <c r="DY12" t="n">
-        <v>0.08767023845421448</v>
+        <v>-0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.04878064979859363</v>
+        <v>-0</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.01870574302172745</v>
+        <v>-0.08021595195992738</v>
       </c>
       <c r="EB12" t="n">
         <v>0</v>
       </c>
       <c r="EC12" t="n">
-        <v>0</v>
+        <v>0.003966523419875172</v>
       </c>
       <c r="ED12" t="n">
         <v>0</v>
       </c>
       <c r="EE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG12" t="n">
-        <v>0</v>
+        <v>-0.04034402614480631</v>
       </c>
       <c r="EH12" t="n">
-        <v>-0.0500524186721174</v>
+        <v>0</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.08764112620492941</v>
+        <v>-0</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.07329900988319499</v>
+        <v>0.08734917776379049</v>
       </c>
       <c r="EK12" t="n">
         <v>-0</v>
       </c>
       <c r="EL12" t="n">
-        <v>-0</v>
+        <v>0.0896346889911684</v>
       </c>
       <c r="EM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN12" t="n">
         <v>-0</v>
       </c>
       <c r="EO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>-0</v>
+        <v>-0.0513434457536235</v>
       </c>
       <c r="EQ12" t="n">
-        <v>-0.01060236717517366</v>
+        <v>0</v>
       </c>
       <c r="ER12" t="n">
-        <v>-0.02943385377438717</v>
+        <v>-0</v>
       </c>
       <c r="ES12" t="n">
-        <v>-0.0215219183763825</v>
+        <v>0.04503177562002618</v>
       </c>
       <c r="ET12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU12" t="n">
-        <v>0</v>
+        <v>0.009343821042865717</v>
       </c>
       <c r="EV12" t="n">
         <v>-0</v>
       </c>
       <c r="EW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY12" t="n">
-        <v>0</v>
+        <v>-0.1328875008728389</v>
       </c>
       <c r="EZ12" t="n">
-        <v>-0.03975720895217363</v>
+        <v>0</v>
       </c>
       <c r="FA12" t="n">
-        <v>0.03980683638572854</v>
+        <v>-0</v>
       </c>
       <c r="FB12" t="n">
-        <v>-0.02832467612259193</v>
+        <v>0.04707532121686669</v>
       </c>
       <c r="FC12" t="n">
         <v>-0</v>
       </c>
       <c r="FD12" t="n">
-        <v>-0</v>
+        <v>0.06437341307497001</v>
       </c>
       <c r="FE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF12" t="n">
         <v>-0</v>
@@ -7183,25 +7183,25 @@
         <v>-0</v>
       </c>
       <c r="FH12" t="n">
-        <v>0</v>
+        <v>-0.04482719156449076</v>
       </c>
       <c r="FI12" t="n">
-        <v>-0.03292701512435641</v>
+        <v>-0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>-0.006209762965905459</v>
+        <v>0</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.001792322522639237</v>
+        <v>-0.1171308848122798</v>
       </c>
       <c r="FL12" t="n">
         <v>-0</v>
       </c>
       <c r="FM12" t="n">
-        <v>-0</v>
+        <v>0.06166479026267591</v>
       </c>
       <c r="FN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO12" t="n">
         <v>-0</v>
@@ -7210,22 +7210,22 @@
         <v>-0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>-0</v>
+        <v>-0.01025211845264527</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.006931710179852129</v>
+        <v>-0</v>
       </c>
       <c r="FS12" t="n">
-        <v>-0.03429512803882528</v>
+        <v>-0</v>
       </c>
       <c r="FT12" t="n">
-        <v>-0.001433542828184314</v>
+        <v>0.01272672503161605</v>
       </c>
       <c r="FU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV12" t="n">
-        <v>-0</v>
+        <v>0.04287225277633444</v>
       </c>
       <c r="FW12" t="n">
         <v>0</v>
@@ -7234,28 +7234,28 @@
         <v>-0</v>
       </c>
       <c r="FY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>-0</v>
+        <v>-0.1170014863837318</v>
       </c>
       <c r="GA12" t="n">
-        <v>0.02144446826746035</v>
+        <v>0</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.02163335416999441</v>
+        <v>-0</v>
       </c>
       <c r="GC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD12" t="n">
         <v>-0</v>
       </c>
       <c r="GE12" t="n">
-        <v>0</v>
+        <v>-0.01611447726116331</v>
       </c>
       <c r="GF12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG12" t="n">
         <v>0</v>
@@ -7263,100 +7263,100 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.9037999349607546</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2952164078094189</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.001629977121165796</v>
+        <v>-0.2705469294746717</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.1614576130753977</v>
+        <v>-0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-0.5021443778788824</v>
       </c>
       <c r="J13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.6468046292151415</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2754721660099705</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.03448023830027136</v>
+        <v>-0.3037985855491954</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.1701372840650312</v>
+        <v>-0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-0.4744861877901685</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.2906729625255864</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.01109559147256215</v>
+        <v>-0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.03356734361959927</v>
+        <v>0.04069169043464379</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0.0693575333567619</v>
+        <v>-0</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0</v>
+        <v>-0.09488756153507856</v>
       </c>
       <c r="AB13" t="n">
         <v>-0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>0.3372909464536809</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0.0009192527566985802</v>
+        <v>-0</v>
       </c>
       <c r="AE13" t="n">
         <v>-0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.02230330221686573</v>
+        <v>-0.08985694617909631</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
@@ -7365,25 +7365,25 @@
         <v>-0</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.021219116660988</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0</v>
+        <v>-0.0109412132129853</v>
       </c>
       <c r="AK13" t="n">
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0</v>
+        <v>0.1595608387608476</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.06590126129313945</v>
+        <v>-0</v>
       </c>
       <c r="AN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.07867401985410326</v>
+        <v>-0.01444501788700834</v>
       </c>
       <c r="AP13" t="n">
         <v>0</v>
@@ -7392,25 +7392,25 @@
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>-0.02882463464687446</v>
+        <v>-0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>-0.0331552472268203</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0</v>
+        <v>0.8726769546376818</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.1371964714545568</v>
+        <v>-0</v>
       </c>
       <c r="AW13" t="n">
         <v>-0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.02860039669402552</v>
+        <v>0.09345030283205286</v>
       </c>
       <c r="AY13" t="n">
         <v>0</v>
@@ -7419,415 +7419,415 @@
         <v>0</v>
       </c>
       <c r="BA13" t="n">
-        <v>-0.1325538646480219</v>
+        <v>-0</v>
       </c>
       <c r="BB13" t="n">
-        <v>0</v>
+        <v>-0.2948946468178634</v>
       </c>
       <c r="BC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>0.1155923320879802</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.08405257737775627</v>
+        <v>0</v>
       </c>
       <c r="BF13" t="n">
         <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.0544911080020461</v>
+        <v>-0.246610868676664</v>
       </c>
       <c r="BH13" t="n">
         <v>0</v>
       </c>
       <c r="BI13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>-0.06725743499506662</v>
+        <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>0</v>
+        <v>-0.2015268540657818</v>
       </c>
       <c r="BL13" t="n">
         <v>-0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0</v>
+        <v>0.086833185018836</v>
       </c>
       <c r="BN13" t="n">
-        <v>-0.06283424068185023</v>
+        <v>-0</v>
       </c>
       <c r="BO13" t="n">
         <v>0</v>
       </c>
       <c r="BP13" t="n">
-        <v>-0.05811532172049581</v>
+        <v>0.3713101732684627</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR13" t="n">
         <v>-0</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.07301775029671344</v>
+        <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>-0</v>
+        <v>-0.008970142855151284</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
       </c>
       <c r="BV13" t="n">
-        <v>0</v>
+        <v>0.515801096137763</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.09409762102036373</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY13" t="n">
-        <v>-0.005492340903000877</v>
+        <v>0.06772297468711064</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB13" t="n">
-        <v>-0.05920670151800397</v>
+        <v>-0</v>
       </c>
       <c r="CC13" t="n">
-        <v>0</v>
+        <v>-0.1122891668095904</v>
       </c>
       <c r="CD13" t="n">
         <v>0</v>
       </c>
       <c r="CE13" t="n">
-        <v>-0</v>
+        <v>-0.2115656499335515</v>
       </c>
       <c r="CF13" t="n">
-        <v>-0.06882920516871936</v>
+        <v>-0</v>
       </c>
       <c r="CG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH13" t="n">
-        <v>-0.003492215522146527</v>
+        <v>0.01685207636372874</v>
       </c>
       <c r="CI13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.03121655485064757</v>
+        <v>-0</v>
       </c>
       <c r="CL13" t="n">
-        <v>-0</v>
+        <v>0.1635097107038635</v>
       </c>
       <c r="CM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>-0</v>
+        <v>-0.2699571702306918</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.03296531962034523</v>
+        <v>0</v>
       </c>
       <c r="CP13" t="n">
         <v>-0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.08791577458515405</v>
+        <v>-0.2555261266590999</v>
       </c>
       <c r="CR13" t="n">
         <v>0</v>
       </c>
       <c r="CS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.04595855514181406</v>
+        <v>-0</v>
       </c>
       <c r="CU13" t="n">
-        <v>0</v>
+        <v>0.06080644945558242</v>
       </c>
       <c r="CV13" t="n">
         <v>-0</v>
       </c>
       <c r="CW13" t="n">
-        <v>0</v>
+        <v>-0.1785768120426576</v>
       </c>
       <c r="CX13" t="n">
-        <v>-0.06592939633178604</v>
+        <v>-0</v>
       </c>
       <c r="CY13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.0255327162976696</v>
+        <v>0.02600878339154837</v>
       </c>
       <c r="DA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.02485218233731122</v>
+        <v>0</v>
       </c>
       <c r="DD13" t="n">
-        <v>0</v>
+        <v>0.1244044312286271</v>
       </c>
       <c r="DE13" t="n">
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0</v>
+        <v>-0.4841100155989574</v>
       </c>
       <c r="DG13" t="n">
-        <v>-0.02953343101101602</v>
+        <v>-0</v>
       </c>
       <c r="DH13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI13" t="n">
-        <v>-0.01629515303290286</v>
+        <v>0.1102107805640723</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK13" t="n">
         <v>0</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.04051653799582738</v>
+        <v>0</v>
       </c>
       <c r="DM13" t="n">
-        <v>0</v>
+        <v>0.02305855043652213</v>
       </c>
       <c r="DN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>-0</v>
+        <v>-0.1062092454104429</v>
       </c>
       <c r="DP13" t="n">
-        <v>-0.01221645439449283</v>
+        <v>0</v>
       </c>
       <c r="DQ13" t="n">
         <v>-0</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.01971717961194346</v>
+        <v>0.0006145773122293303</v>
       </c>
       <c r="DS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT13" t="n">
         <v>0</v>
       </c>
       <c r="DU13" t="n">
-        <v>-0.03024010168109823</v>
+        <v>0</v>
       </c>
       <c r="DV13" t="n">
-        <v>0</v>
+        <v>-0.02749722196058799</v>
       </c>
       <c r="DW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX13" t="n">
-        <v>0</v>
+        <v>0.1734068731259362</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.03569387202005035</v>
+        <v>-0</v>
       </c>
       <c r="DZ13" t="n">
         <v>-0</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.007103463755576979</v>
+        <v>-0.07525587744372637</v>
       </c>
       <c r="EB13" t="n">
         <v>-0</v>
       </c>
       <c r="EC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.05958551740582968</v>
+        <v>-0</v>
       </c>
       <c r="EE13" t="n">
-        <v>-0</v>
+        <v>0.01696296981994286</v>
       </c>
       <c r="EF13" t="n">
         <v>0</v>
       </c>
       <c r="EG13" t="n">
-        <v>0</v>
+        <v>-0.01837495161129804</v>
       </c>
       <c r="EH13" t="n">
-        <v>-0.06532705099292815</v>
+        <v>0</v>
       </c>
       <c r="EI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>-0.04644588543878723</v>
+        <v>0.05101559662607188</v>
       </c>
       <c r="EK13" t="n">
         <v>0</v>
       </c>
       <c r="EL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.05478779919662993</v>
+        <v>0</v>
       </c>
       <c r="EN13" t="n">
-        <v>0</v>
+        <v>0.2208160800479363</v>
       </c>
       <c r="EO13" t="n">
         <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>-0</v>
+        <v>-0.1324716509960639</v>
       </c>
       <c r="EQ13" t="n">
-        <v>-0.001816583616608907</v>
+        <v>0</v>
       </c>
       <c r="ER13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.03359553397210584</v>
+        <v>-0.0165383932825558</v>
       </c>
       <c r="ET13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU13" t="n">
         <v>0</v>
       </c>
       <c r="EV13" t="n">
-        <v>-0.0009397652946927901</v>
+        <v>-0</v>
       </c>
       <c r="EW13" t="n">
-        <v>-0</v>
+        <v>0.02730382403833688</v>
       </c>
       <c r="EX13" t="n">
         <v>0</v>
       </c>
       <c r="EY13" t="n">
-        <v>0</v>
+        <v>-0.2085058711970986</v>
       </c>
       <c r="EZ13" t="n">
-        <v>-0.07123751278989547</v>
+        <v>-0</v>
       </c>
       <c r="FA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.01226034010914679</v>
+        <v>0.006586434498219426</v>
       </c>
       <c r="FC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.03690347317314148</v>
+        <v>-0</v>
       </c>
       <c r="FF13" t="n">
-        <v>-0</v>
+        <v>0.1146027077093686</v>
       </c>
       <c r="FG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH13" t="n">
-        <v>-0</v>
+        <v>-0.09918682736472832</v>
       </c>
       <c r="FI13" t="n">
-        <v>-0.06368041501649337</v>
+        <v>-0</v>
       </c>
       <c r="FJ13" t="n">
         <v>0</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.02532274673511875</v>
+        <v>-0.08080144780507997</v>
       </c>
       <c r="FL13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.0107322338044134</v>
+        <v>-0</v>
       </c>
       <c r="FO13" t="n">
-        <v>-0</v>
+        <v>-0.1267432322124226</v>
       </c>
       <c r="FP13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>-0</v>
+        <v>-0.01531709982175753</v>
       </c>
       <c r="FR13" t="n">
-        <v>-0.01263376166479305</v>
+        <v>-0</v>
       </c>
       <c r="FS13" t="n">
         <v>-0</v>
       </c>
       <c r="FT13" t="n">
-        <v>-0.001239185994306991</v>
+        <v>0.008706671164391099</v>
       </c>
       <c r="FU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV13" t="n">
         <v>-0</v>
       </c>
       <c r="FW13" t="n">
-        <v>-0.003750347131429983</v>
+        <v>-0</v>
       </c>
       <c r="FX13" t="n">
-        <v>-0</v>
+        <v>0.03238005456393921</v>
       </c>
       <c r="FY13" t="n">
         <v>-0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>-0</v>
+        <v>-0.2296912627052839</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.02185558344664024</v>
+        <v>0</v>
       </c>
       <c r="GB13" t="n">
         <v>-0</v>
       </c>
       <c r="GC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE13" t="n">
         <v>-0</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.02632652743447528</v>
+        <v>0</v>
       </c>
       <c r="GG13" t="n">
-        <v>0</v>
+        <v>-0.04124979428553942</v>
       </c>
     </row>
     <row r="14">
@@ -7835,10 +7835,10 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -7862,10 +7862,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -7889,10 +7889,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -7916,10 +7916,10 @@
         <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
         <v>0</v>
@@ -7943,10 +7943,10 @@
         <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="n">
         <v>0</v>
@@ -7970,10 +7970,10 @@
         <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW14" t="n">
         <v>0</v>
@@ -7997,10 +7997,10 @@
         <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF14" t="n">
         <v>0</v>
@@ -8024,10 +8024,10 @@
         <v>0</v>
       </c>
       <c r="BM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO14" t="n">
         <v>0</v>
@@ -8051,10 +8051,10 @@
         <v>0</v>
       </c>
       <c r="BV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX14" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG14" t="n">
         <v>0</v>
@@ -8105,10 +8105,10 @@
         <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP14" t="n">
         <v>0</v>
@@ -8159,10 +8159,10 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH14" t="n">
         <v>0</v>
@@ -8186,10 +8186,10 @@
         <v>0</v>
       </c>
       <c r="DO14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ14" t="n">
         <v>0</v>
@@ -8240,10 +8240,10 @@
         <v>0</v>
       </c>
       <c r="EG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI14" t="n">
         <v>0</v>
@@ -8267,10 +8267,10 @@
         <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER14" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>0</v>
       </c>
       <c r="EY14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA14" t="n">
         <v>0</v>
@@ -8321,10 +8321,10 @@
         <v>0</v>
       </c>
       <c r="FH14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ14" t="n">
         <v>0</v>
@@ -8348,10 +8348,10 @@
         <v>0</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS14" t="n">
         <v>0</v>
@@ -8404,25 +8404,25 @@
         <v>-0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.2627926690483666</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2224231249133911</v>
+        <v>-0.0810630324891288</v>
       </c>
       <c r="D15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.03391009724635102</v>
+        <v>-0.1150086910086987</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.04163658721602212</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>-0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -8431,19 +8431,19 @@
         <v>-0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.1992899565628653</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2203179352538594</v>
+        <v>-0.04479323194428617</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0.03055584040459168</v>
+        <v>-0.1576198425833947</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.07459705441388519</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>-0</v>
@@ -8458,19 +8458,19 @@
         <v>-0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>0.05761226744951054</v>
       </c>
       <c r="U15" t="n">
-        <v>0.009605829188484283</v>
+        <v>0.003552895063040842</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.06732363034088241</v>
+        <v>0.0008928479117895961</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.05801331761462281</v>
+        <v>-0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -8485,22 +8485,22 @@
         <v>-0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>0.08603865067054153</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.005803674089244</v>
+        <v>0.003377954953735742</v>
       </c>
       <c r="AE15" t="n">
         <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.1303075325450582</v>
+        <v>0.018985285255503</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.04453554820715541</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI15" t="n">
         <v>-0</v>
@@ -8512,46 +8512,46 @@
         <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>-0</v>
+        <v>0.07234086192318898</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.06960575022478305</v>
+        <v>-0.005407077656541557</v>
       </c>
       <c r="AN15" t="n">
         <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.03469434679173288</v>
+        <v>-0.02195398602327197</v>
       </c>
       <c r="AP15" t="n">
-        <v>-0.01795652768056147</v>
+        <v>0</v>
       </c>
       <c r="AQ15" t="n">
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>0.2218761240401053</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.106575824294003</v>
+        <v>-0.05962537974334123</v>
       </c>
       <c r="AW15" t="n">
         <v>-0</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.05726304940721628</v>
+        <v>-0.01191836970848002</v>
       </c>
       <c r="AY15" t="n">
-        <v>-0.01083132940774365</v>
+        <v>0</v>
       </c>
       <c r="AZ15" t="n">
         <v>0</v>
@@ -8560,31 +8560,31 @@
         <v>0</v>
       </c>
       <c r="BB15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC15" t="n">
         <v>-0</v>
       </c>
       <c r="BD15" t="n">
-        <v>0</v>
+        <v>0.04930879736987483</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.03723926158402407</v>
+        <v>-0.0385287175569714</v>
       </c>
       <c r="BF15" t="n">
         <v>0</v>
       </c>
       <c r="BG15" t="n">
-        <v>-0.05920291210653257</v>
+        <v>-0.1236258029346373</v>
       </c>
       <c r="BH15" t="n">
-        <v>-0.01553384816203539</v>
+        <v>0</v>
       </c>
       <c r="BI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK15" t="n">
         <v>0</v>
@@ -8593,76 +8593,76 @@
         <v>-0</v>
       </c>
       <c r="BM15" t="n">
-        <v>0</v>
+        <v>0.0457895767964064</v>
       </c>
       <c r="BN15" t="n">
-        <v>-0.03327505349848322</v>
+        <v>-0.02329819406020149</v>
       </c>
       <c r="BO15" t="n">
         <v>0</v>
       </c>
       <c r="BP15" t="n">
-        <v>-0.06558807438842436</v>
+        <v>0.05626802631266279</v>
       </c>
       <c r="BQ15" t="n">
-        <v>-0.0127192632298159</v>
+        <v>-0</v>
       </c>
       <c r="BR15" t="n">
         <v>-0</v>
       </c>
       <c r="BS15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU15" t="n">
         <v>-0</v>
       </c>
       <c r="BV15" t="n">
-        <v>0</v>
+        <v>0.11747219850488</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.07666741125094839</v>
+        <v>-0.05870696976031666</v>
       </c>
       <c r="BX15" t="n">
         <v>0</v>
       </c>
       <c r="BY15" t="n">
-        <v>-0.02944938973829377</v>
+        <v>0.007734387552162937</v>
       </c>
       <c r="BZ15" t="n">
-        <v>-0.06134497172346136</v>
+        <v>-0</v>
       </c>
       <c r="CA15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD15" t="n">
         <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>-0</v>
+        <v>-0.04803854213134497</v>
       </c>
       <c r="CF15" t="n">
-        <v>-0.04563224427826748</v>
+        <v>0.005109172799418304</v>
       </c>
       <c r="CG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH15" t="n">
-        <v>-0.01930684255660756</v>
+        <v>0.02287529153687776</v>
       </c>
       <c r="CI15" t="n">
-        <v>0.01422448448357455</v>
+        <v>0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK15" t="n">
         <v>0</v>
@@ -8671,22 +8671,22 @@
         <v>-0</v>
       </c>
       <c r="CM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN15" t="n">
-        <v>-0</v>
+        <v>-0.03490296434830534</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.0476276601590694</v>
+        <v>-0.005482993538754898</v>
       </c>
       <c r="CP15" t="n">
         <v>-0</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.1021699252342931</v>
+        <v>0.02062565338317831</v>
       </c>
       <c r="CR15" t="n">
-        <v>-0.005028765902150613</v>
+        <v>0</v>
       </c>
       <c r="CS15" t="n">
         <v>-0</v>
@@ -8695,31 +8695,31 @@
         <v>-0</v>
       </c>
       <c r="CU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV15" t="n">
         <v>-0</v>
       </c>
       <c r="CW15" t="n">
-        <v>0</v>
+        <v>-0.03495673270788737</v>
       </c>
       <c r="CX15" t="n">
-        <v>-0.04043344496499961</v>
+        <v>-0.002047486234418454</v>
       </c>
       <c r="CY15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.002699754154048994</v>
+        <v>0.01200909671627374</v>
       </c>
       <c r="DA15" t="n">
-        <v>0.01627537783494766</v>
+        <v>0</v>
       </c>
       <c r="DB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD15" t="n">
         <v>0</v>
@@ -8728,76 +8728,76 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>-0</v>
+        <v>-0.03572616650165913</v>
       </c>
       <c r="DG15" t="n">
-        <v>-0.03496522987147403</v>
+        <v>0.003815109636900963</v>
       </c>
       <c r="DH15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI15" t="n">
-        <v>-0.05021316054404425</v>
+        <v>-0.01744499205115463</v>
       </c>
       <c r="DJ15" t="n">
-        <v>-0.09335026824750119</v>
+        <v>-0</v>
       </c>
       <c r="DK15" t="n">
         <v>0</v>
       </c>
       <c r="DL15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM15" t="n">
         <v>0</v>
       </c>
       <c r="DN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO15" t="n">
-        <v>0</v>
+        <v>-0.0109075793123518</v>
       </c>
       <c r="DP15" t="n">
-        <v>-0.013692956103689</v>
+        <v>0.001656555506474232</v>
       </c>
       <c r="DQ15" t="n">
         <v>-0</v>
       </c>
       <c r="DR15" t="n">
-        <v>-0.03311894197729482</v>
+        <v>0.01472167294385269</v>
       </c>
       <c r="DS15" t="n">
-        <v>-0.007714286156449704</v>
+        <v>-0</v>
       </c>
       <c r="DT15" t="n">
         <v>0</v>
       </c>
       <c r="DU15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX15" t="n">
-        <v>-0</v>
+        <v>0.02456818331696473</v>
       </c>
       <c r="DY15" t="n">
-        <v>0.01875439084770585</v>
+        <v>-0.006251669250832904</v>
       </c>
       <c r="DZ15" t="n">
         <v>-0</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.03899964143107356</v>
+        <v>0.001644115847112622</v>
       </c>
       <c r="EB15" t="n">
-        <v>0.00966914885351924</v>
+        <v>0</v>
       </c>
       <c r="EC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED15" t="n">
         <v>-0</v>
@@ -8809,46 +8809,46 @@
         <v>0</v>
       </c>
       <c r="EG15" t="n">
-        <v>0</v>
+        <v>-0.01221869326204337</v>
       </c>
       <c r="EH15" t="n">
-        <v>-0.04713013214564216</v>
+        <v>-0.004672829279139489</v>
       </c>
       <c r="EI15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ15" t="n">
-        <v>-0.02525389372251893</v>
+        <v>0.04477459866944411</v>
       </c>
       <c r="EK15" t="n">
-        <v>0.03414083177728681</v>
+        <v>0</v>
       </c>
       <c r="EL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM15" t="n">
         <v>0</v>
       </c>
       <c r="EN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP15" t="n">
-        <v>-0</v>
+        <v>-0.02027044964127923</v>
       </c>
       <c r="EQ15" t="n">
-        <v>-0.003768883547772493</v>
+        <v>-0.03806107625354927</v>
       </c>
       <c r="ER15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.02046855347889095</v>
+        <v>0.04117208731068238</v>
       </c>
       <c r="ET15" t="n">
-        <v>0.06123021384306314</v>
+        <v>-0</v>
       </c>
       <c r="EU15" t="n">
         <v>-0</v>
@@ -8863,22 +8863,22 @@
         <v>0</v>
       </c>
       <c r="EY15" t="n">
-        <v>0</v>
+        <v>-0.0422605338977448</v>
       </c>
       <c r="EZ15" t="n">
-        <v>-0.04558689527040338</v>
+        <v>0.002851375621828333</v>
       </c>
       <c r="FA15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB15" t="n">
-        <v>-0.007318114646840613</v>
+        <v>0.02506514579102377</v>
       </c>
       <c r="FC15" t="n">
-        <v>0.007947193766538378</v>
+        <v>-0</v>
       </c>
       <c r="FD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE15" t="n">
         <v>0</v>
@@ -8887,22 +8887,22 @@
         <v>-0</v>
       </c>
       <c r="FG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH15" t="n">
-        <v>-0</v>
+        <v>-0.03794473051473302</v>
       </c>
       <c r="FI15" t="n">
-        <v>-0.04218671913250587</v>
+        <v>-0.02061064125384824</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.01760781110532619</v>
+        <v>-0.05740852923746303</v>
       </c>
       <c r="FL15" t="n">
-        <v>0.02324913754600955</v>
+        <v>-0</v>
       </c>
       <c r="FM15" t="n">
         <v>0</v>
@@ -8914,28 +8914,28 @@
         <v>0</v>
       </c>
       <c r="FP15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ15" t="n">
-        <v>-0</v>
+        <v>6.168610604863043e-07</v>
       </c>
       <c r="FR15" t="n">
-        <v>-0.0004555225334450651</v>
+        <v>0.01352632230284474</v>
       </c>
       <c r="FS15" t="n">
         <v>-0</v>
       </c>
       <c r="FT15" t="n">
-        <v>-0.004176070649903164</v>
+        <v>-0.003782219217187453</v>
       </c>
       <c r="FU15" t="n">
-        <v>0.0116071553290519</v>
+        <v>-0</v>
       </c>
       <c r="FV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX15" t="n">
         <v>0</v>
@@ -8944,19 +8944,19 @@
         <v>-0</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0</v>
+        <v>-0.01033529071965261</v>
       </c>
       <c r="GA15" t="n">
-        <v>0.02258334097545909</v>
+        <v>0.0196689105599196</v>
       </c>
       <c r="GB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC15" t="n">
         <v>-0</v>
       </c>
       <c r="GD15" t="n">
-        <v>0.002365254635256717</v>
+        <v>-0</v>
       </c>
       <c r="GE15" t="n">
         <v>-0</v>
@@ -8970,100 +8970,100 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>-0</v>
+        <v>0.297470215612082</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2037798993296514</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01462973569259359</v>
+        <v>-0.141499551606581</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.09300792034285967</v>
+        <v>-0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-0.04307612443706872</v>
       </c>
       <c r="J16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.1854598829423522</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1935305407088588</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.03340145640611973</v>
+        <v>-0.1762701381778839</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.09995700740919944</v>
+        <v>-0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-0.0497255576618784</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.06065463929443161</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.01633416495458911</v>
+        <v>-0</v>
       </c>
       <c r="V16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.03503679414342368</v>
+        <v>0.02363991892377217</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.03306934973796608</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0</v>
+        <v>-0.01136929942739121</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>0.1202870731692265</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.0008185968044543506</v>
+        <v>-0</v>
       </c>
       <c r="AE16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.04453535888066407</v>
+        <v>-0.02684103343875652</v>
       </c>
       <c r="AG16" t="n">
         <v>0</v>
@@ -9072,25 +9072,25 @@
         <v>-0</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.01961787623530708</v>
+        <v>-0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>-0</v>
+        <v>0.01524382942083989</v>
       </c>
       <c r="AK16" t="n">
         <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>-0</v>
+        <v>0.07046616443408694</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.03852520702603052</v>
+        <v>-0</v>
       </c>
       <c r="AN16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.06567801142986675</v>
+        <v>-0.01157978629039267</v>
       </c>
       <c r="AP16" t="n">
         <v>0</v>
@@ -9099,25 +9099,25 @@
         <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>-0.009268839627528669</v>
+        <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>-0</v>
+        <v>-0.02957691428101343</v>
       </c>
       <c r="AT16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU16" t="n">
-        <v>-0</v>
+        <v>0.2758374818369653</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.08312701881271016</v>
+        <v>-0</v>
       </c>
       <c r="AW16" t="n">
         <v>-0</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.02799047183999576</v>
+        <v>0.01238158796472995</v>
       </c>
       <c r="AY16" t="n">
         <v>0</v>
@@ -9126,25 +9126,25 @@
         <v>0</v>
       </c>
       <c r="BA16" t="n">
-        <v>-0.1168793889076661</v>
+        <v>-0</v>
       </c>
       <c r="BB16" t="n">
-        <v>0</v>
+        <v>0.0164738024872832</v>
       </c>
       <c r="BC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD16" t="n">
-        <v>0</v>
+        <v>0.02033456302605653</v>
       </c>
       <c r="BE16" t="n">
-        <v>0.05718529604793095</v>
+        <v>0</v>
       </c>
       <c r="BF16" t="n">
         <v>0</v>
       </c>
       <c r="BG16" t="n">
-        <v>-0.0392016367409329</v>
+        <v>-0.1616179810256886</v>
       </c>
       <c r="BH16" t="n">
         <v>0</v>
@@ -9153,322 +9153,322 @@
         <v>-0</v>
       </c>
       <c r="BJ16" t="n">
-        <v>-0.02639989925010042</v>
+        <v>0</v>
       </c>
       <c r="BK16" t="n">
-        <v>-0</v>
+        <v>-0.03617301983232012</v>
       </c>
       <c r="BL16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM16" t="n">
-        <v>0</v>
+        <v>0.04737269705555809</v>
       </c>
       <c r="BN16" t="n">
-        <v>-0.02654423199735669</v>
+        <v>-0</v>
       </c>
       <c r="BO16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP16" t="n">
-        <v>-0.02390337985006518</v>
+        <v>0.0710090463573283</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR16" t="n">
         <v>-0</v>
       </c>
       <c r="BS16" t="n">
-        <v>0.05838555044947999</v>
+        <v>0</v>
       </c>
       <c r="BT16" t="n">
-        <v>-0</v>
+        <v>-0.001777304005786001</v>
       </c>
       <c r="BU16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV16" t="n">
-        <v>0</v>
+        <v>0.1638090427412578</v>
       </c>
       <c r="BW16" t="n">
-        <v>0.05859571476954578</v>
+        <v>0</v>
       </c>
       <c r="BX16" t="n">
         <v>-0</v>
       </c>
       <c r="BY16" t="n">
-        <v>0.003938109353435845</v>
+        <v>0.004189200710487808</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB16" t="n">
-        <v>-0.02619469500251153</v>
+        <v>-0</v>
       </c>
       <c r="CC16" t="n">
-        <v>0</v>
+        <v>0.01225416859509788</v>
       </c>
       <c r="CD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE16" t="n">
-        <v>-0</v>
+        <v>-0.04605111501521316</v>
       </c>
       <c r="CF16" t="n">
-        <v>-0.03849554984171069</v>
+        <v>-0</v>
       </c>
       <c r="CG16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH16" t="n">
-        <v>-0.005054846746645091</v>
+        <v>0.01637927723758153</v>
       </c>
       <c r="CI16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK16" t="n">
-        <v>0.0256715623133213</v>
+        <v>0</v>
       </c>
       <c r="CL16" t="n">
-        <v>-0</v>
+        <v>0.007835504145980259</v>
       </c>
       <c r="CM16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN16" t="n">
-        <v>-0</v>
+        <v>-0.05231441506726874</v>
       </c>
       <c r="CO16" t="n">
-        <v>0.02487664475316888</v>
+        <v>-0</v>
       </c>
       <c r="CP16" t="n">
         <v>-0</v>
       </c>
       <c r="CQ16" t="n">
-        <v>0.04964103257129675</v>
+        <v>-0.01318569635005671</v>
       </c>
       <c r="CR16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT16" t="n">
-        <v>0.02405379072858277</v>
+        <v>-0</v>
       </c>
       <c r="CU16" t="n">
-        <v>0</v>
+        <v>-0.0302879783077322</v>
       </c>
       <c r="CV16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW16" t="n">
-        <v>0</v>
+        <v>-0.03181137870341041</v>
       </c>
       <c r="CX16" t="n">
-        <v>-0.03688157387681372</v>
+        <v>-0</v>
       </c>
       <c r="CY16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>0.009742707674133037</v>
+        <v>0.008147577655955357</v>
       </c>
       <c r="DA16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC16" t="n">
-        <v>0.0173025973559302</v>
+        <v>-0</v>
       </c>
       <c r="DD16" t="n">
-        <v>0</v>
+        <v>0.01604591199356699</v>
       </c>
       <c r="DE16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF16" t="n">
-        <v>0</v>
+        <v>-0.04162916339886686</v>
       </c>
       <c r="DG16" t="n">
-        <v>-0.01091544220640042</v>
+        <v>-0</v>
       </c>
       <c r="DH16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI16" t="n">
-        <v>-0.04205838363145294</v>
+        <v>0.06001134729624377</v>
       </c>
       <c r="DJ16" t="n">
         <v>0</v>
       </c>
       <c r="DK16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL16" t="n">
-        <v>0.005299495273411419</v>
+        <v>0</v>
       </c>
       <c r="DM16" t="n">
-        <v>0</v>
+        <v>-0.02782535442670992</v>
       </c>
       <c r="DN16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO16" t="n">
-        <v>-0</v>
+        <v>0.007507242409552972</v>
       </c>
       <c r="DP16" t="n">
-        <v>-0.01122428852527621</v>
+        <v>-0</v>
       </c>
       <c r="DQ16" t="n">
         <v>-0</v>
       </c>
       <c r="DR16" t="n">
-        <v>-0.01931457835258272</v>
+        <v>-0.00842086631126978</v>
       </c>
       <c r="DS16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT16" t="n">
         <v>0</v>
       </c>
       <c r="DU16" t="n">
-        <v>0.004655379681871069</v>
+        <v>-0</v>
       </c>
       <c r="DV16" t="n">
-        <v>0</v>
+        <v>-0.02980456516823454</v>
       </c>
       <c r="DW16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX16" t="n">
-        <v>-0</v>
+        <v>0.02746859530258368</v>
       </c>
       <c r="DY16" t="n">
-        <v>0.01783184019514011</v>
+        <v>0</v>
       </c>
       <c r="DZ16" t="n">
         <v>-0</v>
       </c>
       <c r="EA16" t="n">
-        <v>0.01591675082715005</v>
+        <v>-0.03394020224867211</v>
       </c>
       <c r="EB16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC16" t="n">
         <v>0</v>
       </c>
       <c r="ED16" t="n">
-        <v>0.01002713176559555</v>
+        <v>-0</v>
       </c>
       <c r="EE16" t="n">
-        <v>-0</v>
+        <v>-0.01248358363337077</v>
       </c>
       <c r="EF16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG16" t="n">
-        <v>0</v>
+        <v>-0.01406357739598546</v>
       </c>
       <c r="EH16" t="n">
-        <v>-0.03909290938132179</v>
+        <v>0</v>
       </c>
       <c r="EI16" t="n">
         <v>0</v>
       </c>
       <c r="EJ16" t="n">
-        <v>-0.04370843700131848</v>
+        <v>0.04111404855240584</v>
       </c>
       <c r="EK16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM16" t="n">
-        <v>0.04657045444032013</v>
+        <v>0</v>
       </c>
       <c r="EN16" t="n">
-        <v>0</v>
+        <v>0.03031050489531523</v>
       </c>
       <c r="EO16" t="n">
         <v>0</v>
       </c>
       <c r="EP16" t="n">
-        <v>0</v>
+        <v>-0.03780106309024736</v>
       </c>
       <c r="EQ16" t="n">
-        <v>0.02062367311418899</v>
+        <v>0</v>
       </c>
       <c r="ER16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES16" t="n">
-        <v>0.03405756022505215</v>
+        <v>0.006788016252255897</v>
       </c>
       <c r="ET16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV16" t="n">
-        <v>0.01464856024175322</v>
+        <v>0</v>
       </c>
       <c r="EW16" t="n">
-        <v>-0</v>
+        <v>-0.03043479484609412</v>
       </c>
       <c r="EX16" t="n">
         <v>0</v>
       </c>
       <c r="EY16" t="n">
-        <v>0</v>
+        <v>-0.04306000313452459</v>
       </c>
       <c r="EZ16" t="n">
-        <v>-0.03946029292406784</v>
+        <v>-0</v>
       </c>
       <c r="FA16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB16" t="n">
-        <v>0.001962986415603898</v>
+        <v>0.005689327377190536</v>
       </c>
       <c r="FC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE16" t="n">
-        <v>0.02467100206971122</v>
+        <v>0</v>
       </c>
       <c r="FF16" t="n">
-        <v>-0</v>
+        <v>0.006485631657300266</v>
       </c>
       <c r="FG16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH16" t="n">
-        <v>-0</v>
+        <v>-0.03116581675731043</v>
       </c>
       <c r="FI16" t="n">
-        <v>-0.04762225714358096</v>
+        <v>-0</v>
       </c>
       <c r="FJ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK16" t="n">
-        <v>0.04017249645618119</v>
+        <v>-0.03114854560961591</v>
       </c>
       <c r="FL16" t="n">
         <v>-0</v>
@@ -9477,64 +9477,64 @@
         <v>0</v>
       </c>
       <c r="FN16" t="n">
-        <v>-0.004630435180349588</v>
+        <v>0</v>
       </c>
       <c r="FO16" t="n">
-        <v>-0</v>
+        <v>0.0007418673012406755</v>
       </c>
       <c r="FP16" t="n">
         <v>0</v>
       </c>
       <c r="FQ16" t="n">
-        <v>-0</v>
+        <v>-0.0002875939119196692</v>
       </c>
       <c r="FR16" t="n">
-        <v>-0.001935357062984789</v>
+        <v>-0</v>
       </c>
       <c r="FS16" t="n">
         <v>-0</v>
       </c>
       <c r="FT16" t="n">
-        <v>-0.0004052500496161995</v>
+        <v>0.0004393127297132685</v>
       </c>
       <c r="FU16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV16" t="n">
         <v>-0</v>
       </c>
       <c r="FW16" t="n">
-        <v>0.007914138730856571</v>
+        <v>-0</v>
       </c>
       <c r="FX16" t="n">
-        <v>-0</v>
+        <v>0.00603933191697211</v>
       </c>
       <c r="FY16" t="n">
         <v>-0</v>
       </c>
       <c r="FZ16" t="n">
-        <v>0</v>
+        <v>-0.04115484978034142</v>
       </c>
       <c r="GA16" t="n">
-        <v>-0.001079845656848541</v>
+        <v>0</v>
       </c>
       <c r="GB16" t="n">
         <v>-0</v>
       </c>
       <c r="GC16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE16" t="n">
         <v>-0</v>
       </c>
       <c r="GF16" t="n">
-        <v>0.03395642136135768</v>
+        <v>0</v>
       </c>
       <c r="GG16" t="n">
-        <v>0</v>
+        <v>0.002420069112950001</v>
       </c>
     </row>
   </sheetData>
